--- a/public/体制.xlsx
+++ b/public/体制.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seiichi Fujita\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seijirokomatsu/Documents/private/english/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8590"/>
+    <workbookView xWindow="2280" yWindow="-17740" windowWidth="19340" windowHeight="16860"/>
   </bookViews>
   <sheets>
     <sheet name="メンバーリスト" sheetId="1" r:id="rId1"/>
     <sheet name="2019年1月" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="111">
   <si>
     <t xml:space="preserve">蔵原　磨佐輝 </t>
   </si>
@@ -525,6 +528,16 @@
     <t>TL?ワーホリ？</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>小松清次郎</t>
+    <rPh sb="0" eb="2">
+      <t>コマツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイジロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -631,16 +644,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
@@ -654,6 +657,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10267,234 +10280,234 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{FE09EE38-BA5A-4083-AAC9-799233306EB7}" type="presOf" srcId="{9628DBEC-2BE9-46F9-AD6C-EB441F40214E}" destId="{11D12245-7B66-4BAF-8878-E68BC48CA1F2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{C5347E5E-E14F-44EC-8F4B-78BAA6CAD4C0}" type="presOf" srcId="{67EA6C06-40D4-4BA7-8B04-01A3168DAF4B}" destId="{46918F3A-1327-48FF-86E9-DB06C2007076}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{F2C4D0B6-70B4-49E4-BAFE-8D0FC994BAA6}" type="presOf" srcId="{2F3A1133-3EF2-4759-B14F-AF155FE0020F}" destId="{67F4F509-4B7C-4530-975E-6DC4E6EDD5C8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{E30DF58B-8070-448D-AAE9-3CC79D325B93}" type="presOf" srcId="{F8232FB3-AD0A-45B9-B15D-6D9029F7B968}" destId="{110F5CA8-90A0-4FAC-98A2-D46E67449D2A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{7BB9FF7B-6A4A-435F-97AA-A6C4B2F85FB5}" type="presOf" srcId="{3FE50685-761E-4A69-9EE1-3DA36B997AFA}" destId="{8E50CA28-C007-4D0A-A7B3-1255E986398C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{117FB7CA-412B-44DB-91A7-AF176ED8902F}" type="presOf" srcId="{5C919EF6-CDEF-4397-A296-239AEE07EF7C}" destId="{C42A585F-E081-4771-B087-5DC63E3EF868}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{70D60995-5A6B-46F7-8E7C-554680AFA349}" type="presOf" srcId="{EBE0A63E-8068-4C04-83E3-44D88F3017B6}" destId="{84E2BE14-A217-4E4E-88CB-21402AA660B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{CD49223E-1486-41E2-9660-2201A2F9BA79}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{9F390CFD-A09D-4279-9341-732B5455C2BF}" srcOrd="11" destOrd="0" parTransId="{A167FCB0-CC9E-4A9A-B628-A90A750F4870}" sibTransId="{ABA8B975-5CF2-4438-8CC3-0890438AFCC1}"/>
+    <dgm:cxn modelId="{A1D11BEA-9194-455D-8F75-2134A3DED037}" type="presOf" srcId="{4C5B5FA4-1003-4AA8-9E61-1CD19CDFFD53}" destId="{68714630-B553-4A5D-A2E5-2E39C9C2A161}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{3D22CB03-2A61-483B-A095-E720910CBEC3}" type="presOf" srcId="{2C182201-9B04-47F8-8DD4-BB4E1F463B10}" destId="{F6044305-7E73-4C4D-97E0-17CA0E299568}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{7E652155-3A29-4E98-814D-EEF4D8CC4919}" type="presOf" srcId="{A0873F6A-3D8F-468D-AA59-DB02B1916167}" destId="{020947E7-81A6-4264-AAFF-B33F9373086F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{A931A8A4-D70E-4653-94EC-40E6FDC8409C}" type="presOf" srcId="{147DA98C-812C-4A00-86C9-81284A2D5AA7}" destId="{F8511D72-5170-434B-A5C5-B58C87E51FA9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{4E0CD290-992B-4690-95D3-8683F67CA240}" type="presOf" srcId="{EBE0A63E-8068-4C04-83E3-44D88F3017B6}" destId="{0BD26B8E-C475-4809-B31F-58448FDA3216}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{2C223D50-5634-4DFA-9561-8B3679B1CC8E}" type="presOf" srcId="{6469D686-D6B0-48DD-9048-A4A87ABC6C95}" destId="{AB9971FE-492B-4B2A-8772-62D579309218}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{EB556677-68C1-4502-9ADA-46DA6666F354}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{70BF5DB8-B58D-44B5-81B0-5A77811B6E1E}" srcOrd="5" destOrd="0" parTransId="{0351A5A2-D972-4800-99ED-A230BBE8F6A7}" sibTransId="{7131C4E3-D885-4B13-A828-633C111917E3}"/>
+    <dgm:cxn modelId="{C8020951-8ABA-4173-9F53-0F3D17B9A4F2}" type="presOf" srcId="{9F390CFD-A09D-4279-9341-732B5455C2BF}" destId="{DD885DB4-0360-4B79-99DF-FBD25D83CCA1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{1B7F9260-04B7-4C18-B8B9-BC151094B63D}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{F7BFEA5A-4627-4B8C-8314-08D2B1588E79}" srcOrd="10" destOrd="0" parTransId="{614701A8-875B-434A-B671-83B309E977FC}" sibTransId="{44C67E1D-F21C-4E0F-A507-5C777361A508}"/>
+    <dgm:cxn modelId="{04E077FB-3382-42AE-9862-4B89FA200141}" type="presOf" srcId="{E5008AA6-3202-468A-940A-B4CA9F91832E}" destId="{D339E64A-EB9D-4288-A2E4-DDA0472BC15A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{A902FB58-DA3B-4C00-BD8A-FF69D9569927}" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{0608D898-B163-489D-B9C7-B14E4575A312}" srcOrd="1" destOrd="0" parTransId="{A3E7B80F-D82E-4546-9ED6-C7B018FC755A}" sibTransId="{E51ECB12-2AAD-442E-B104-6122DC8AF7C1}"/>
+    <dgm:cxn modelId="{C213D502-B7AE-4805-8408-4FCF2C536138}" srcId="{3774AA08-19D6-47FB-83C7-0AD6CB078AB7}" destId="{8C874F93-F615-47EF-8596-7B82B61279DC}" srcOrd="3" destOrd="0" parTransId="{2CAA8C5F-0773-49B4-A482-E1506FC3FF39}" sibTransId="{903ADE2C-C3BE-4CC7-A6B1-1A248E96AC49}"/>
+    <dgm:cxn modelId="{CF5EBA6B-FD73-4E25-9928-6D40472FB987}" type="presOf" srcId="{8D354F19-FEDF-4F0E-B3B6-944EC2E0E59C}" destId="{D5D16F42-672C-449C-B5D3-413CDA7B6840}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{C66E3A88-28B2-47EA-9503-847773884A0C}" type="presOf" srcId="{EB8626B7-F6D3-4631-BB5C-8AD10CABFB79}" destId="{6FF68B83-5073-4972-82DE-1932E2057609}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{F8922B88-9DF4-4847-8222-720A8B7C9529}" type="presOf" srcId="{0B331850-9836-4092-9A66-DFA59FFD27B6}" destId="{FB0DBCCC-9442-4866-B7D7-6A64C491CD84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{A0B4A544-94BC-450E-946D-482B8B817D3D}" type="presOf" srcId="{2B077780-3556-4562-9415-2D9CA5C9C56E}" destId="{F8AD51CD-AE74-4468-A4D5-7594A0CA1248}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{004E3074-F404-4C3B-BC11-4449F17579B9}" type="presOf" srcId="{73EC8508-4693-4594-B7D0-095AC55E0CB1}" destId="{FFAF363B-9EB0-4336-8E2F-D2C40474D823}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{4C2DE93E-AD73-42A1-B82E-731F2CE3CDED}" type="presOf" srcId="{13182FB0-FB67-4C9D-8399-1CDA050293AD}" destId="{74A1257A-2432-46CD-A49C-C57331A9C836}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{B4A350A3-EFC6-4735-BAB3-D53CAFBD4FDC}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{31BC65FF-7ADE-4CE7-8C9A-1CBB20555114}" srcOrd="6" destOrd="0" parTransId="{E33AB835-336A-4FDC-93EA-D3EA1D6F37BE}" sibTransId="{59853FFA-616A-479D-B79C-106FB49FB95A}"/>
+    <dgm:cxn modelId="{9A4FFF90-C137-400B-BF8D-4C7FA268647F}" type="presOf" srcId="{147DA98C-812C-4A00-86C9-81284A2D5AA7}" destId="{1CC0FC67-0BD0-4663-AD74-BADD39365C46}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{74B89B15-D315-45AA-995E-CF7AECE90757}" type="presOf" srcId="{7D1CCA3D-C449-41BB-B869-9C58741A6E5D}" destId="{295501EE-C04B-407C-8489-4ECF8713090A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{1E97D06D-E268-4AF1-B304-B1E59E1DAAE8}" type="presOf" srcId="{D47E14C7-D276-401A-8E15-F490BEC5902F}" destId="{82E1D7AD-9985-46F2-BFB2-D09C20BF9879}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{71CCBE1B-3819-4DDB-9B5D-16F1D3C39D9F}" type="presOf" srcId="{9926BE73-00F8-437B-AF4A-E11C4736FDF1}" destId="{42FD621E-B3C3-4C5A-A416-8096E975AC1E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{2FBF868B-872E-4A1F-BA86-9A8C7BE8BE71}" type="presOf" srcId="{76852895-DE6A-4965-AEFB-41828806B6AA}" destId="{AE0EC0A8-0998-4D9C-B95A-2C986F405B8F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{204F88BE-584E-4FF9-80A2-2D7CB83E6146}" type="presOf" srcId="{D8C4FFFE-ABAF-4685-9313-0C1955821D3A}" destId="{BCFE97D6-00EC-43A0-84EE-202732FCCAA1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{AE9AF89B-3276-4188-9CD0-A539ED631034}" type="presOf" srcId="{3DF4EF37-E315-41CC-AAFC-EA49AAB11DED}" destId="{C363DC31-699E-4525-A727-C0A29E712485}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{380FEE00-278C-479E-B07E-C3E4D857447E}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{5DC53866-0599-4C48-B03C-5B3C75F0D4F0}" srcOrd="4" destOrd="0" parTransId="{30296546-C4D8-41A8-9F47-E94D7D60757F}" sibTransId="{64AD3C73-6B58-41D0-9A37-410BD88AD803}"/>
+    <dgm:cxn modelId="{4A0A4588-6B0D-42C1-91DF-83967605F915}" type="presOf" srcId="{19B84401-C10A-4B8C-9E77-9358F85F4E30}" destId="{8BB0115E-8473-4127-91F6-BA6373CEC70D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{37093455-086E-4557-90BA-DD3EFCBCE7D5}" type="presOf" srcId="{73668456-7B98-4BC0-9215-F9A6C10EE6DC}" destId="{E1FE91A7-8864-4775-8CF5-68EE07F7E53C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{37404D5F-0386-452C-8190-3240E46F1FE7}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{BE171F4D-DD5C-413C-B713-29B371BE1E9C}" srcOrd="9" destOrd="0" parTransId="{D80BBB47-C499-473A-88F3-A4A8C1E7D315}" sibTransId="{85E0A6D7-EDA7-4ABA-9357-0D41AAABE1C6}"/>
+    <dgm:cxn modelId="{7E4C2882-0ADF-4A99-B7B2-7CE66DF2B004}" type="presOf" srcId="{F40968D4-D975-4188-8DDA-036453A1008D}" destId="{65DBF2B7-69C6-4569-8EE2-D36C44E4CED9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{D9E5FE69-739C-4464-B315-166326D1F78F}" type="presOf" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{4F3067CC-6528-416B-9990-044C6BCDD556}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{BFAF87FA-2BA1-4E8F-A83B-DA31331731EB}" type="presOf" srcId="{5302DFCA-3DF7-45AB-92A0-E52C91D23D62}" destId="{9059711C-E678-47FA-9F86-B1F3288F365F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{0E39DCF1-E75A-4CC0-946C-CDD016E5BCA5}" type="presOf" srcId="{8C874F93-F615-47EF-8596-7B82B61279DC}" destId="{8CBF3BD7-09D7-41D6-8432-F31822B43513}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{D4EBACD3-5A9F-4631-82CE-42534E9B731B}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{5853F8BA-1286-4BED-A551-8B4ECBA09EEE}" srcOrd="3" destOrd="0" parTransId="{BA5D840D-F4A9-4B2E-818D-F5787141FD81}" sibTransId="{7A3DE001-E3F1-42F7-8E8A-7EA5D3D6FDB4}"/>
+    <dgm:cxn modelId="{2458852D-6164-4ED9-82B0-22078455C03A}" type="presOf" srcId="{305D1325-EE35-4655-9F7E-36AC24B358A2}" destId="{74A0EA5E-4934-40CA-8842-C8FDDCAA752D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{32447295-4526-411E-9838-86E38AA5057F}" type="presOf" srcId="{51E658E9-C6E5-4AF1-B015-09D9A5945020}" destId="{1F9A5496-4D88-490B-A309-A461126DC5C6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{E1A21B8B-9612-41D6-898E-FE81494E3A80}" type="presOf" srcId="{7D1CCA3D-C449-41BB-B869-9C58741A6E5D}" destId="{83600E4A-BC6D-497A-842B-716E3F689BF6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{22F2C118-8D33-418B-91B9-6BA12D945713}" type="presOf" srcId="{5853F8BA-1286-4BED-A551-8B4ECBA09EEE}" destId="{51754374-21B0-4B5B-9612-69433C76BA4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{A85E3E7B-52FA-41CB-8170-06219CDBF656}" type="presOf" srcId="{BA5D840D-F4A9-4B2E-818D-F5787141FD81}" destId="{02C727B3-37B1-472D-A735-1B682B5B7D10}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{71577A83-75D4-45D8-9A4F-C74893C13D42}" type="presOf" srcId="{951FEFBE-1B26-4693-B3AD-8444D624CEF8}" destId="{5B286CEC-A87E-4811-BA5D-A54C8926E524}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{0395B8B1-4559-4D42-A420-01A736EB366C}" srcId="{3774AA08-19D6-47FB-83C7-0AD6CB078AB7}" destId="{7D1CCA3D-C449-41BB-B869-9C58741A6E5D}" srcOrd="1" destOrd="0" parTransId="{17C36C6D-74D9-4A79-A0BB-52BA898F12A6}" sibTransId="{40546EA1-1DAB-4405-9B13-1AE86AEB170F}"/>
+    <dgm:cxn modelId="{C30383C6-7CCE-4D47-9F52-806A1746BA38}" type="presOf" srcId="{31BC65FF-7ADE-4CE7-8C9A-1CBB20555114}" destId="{AA6F8D47-CB9F-4600-9C67-BC6D360752E6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{CFF2F952-2C7B-4E4E-90E1-08DE6130DB06}" srcId="{3774AA08-19D6-47FB-83C7-0AD6CB078AB7}" destId="{2F3A1133-3EF2-4759-B14F-AF155FE0020F}" srcOrd="2" destOrd="0" parTransId="{6469D686-D6B0-48DD-9048-A4A87ABC6C95}" sibTransId="{5415319F-9835-4A25-B401-8812E9A13426}"/>
+    <dgm:cxn modelId="{FD266738-6CA9-433C-894C-B00BF1B57493}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{D8C4FFFE-ABAF-4685-9313-0C1955821D3A}" srcOrd="9" destOrd="0" parTransId="{C8681AFA-70D6-4EEE-BE9C-6F35299DB9DF}" sibTransId="{F9435572-B04E-4E6A-92F0-725A5A17AAF0}"/>
+    <dgm:cxn modelId="{60FDA0BD-9D27-42EA-9188-A236A88C8B23}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{5302DFCA-3DF7-45AB-92A0-E52C91D23D62}" srcOrd="12" destOrd="0" parTransId="{4C912BE9-72D7-44FE-A425-AA7A313474DC}" sibTransId="{BA2485A0-6881-47C1-8331-0D0C0530048F}"/>
+    <dgm:cxn modelId="{240F43D4-0A77-4ED9-9B65-8EFC3E74C53B}" type="presOf" srcId="{4E8A4E51-3572-4F58-AF9A-7B078A6F0327}" destId="{6452FC7A-22F4-48D4-9B87-74227FD72816}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{2A183E98-CA8E-4E3D-B513-D6309446B93F}" type="presOf" srcId="{67EA6C06-40D4-4BA7-8B04-01A3168DAF4B}" destId="{AC85EF5E-A5DE-4E2B-8CE1-4A8FBE032FF2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{1196BAC5-B908-4428-A100-88A13ED45797}" srcId="{73EC8508-4693-4594-B7D0-095AC55E0CB1}" destId="{356839F7-09BC-4AAA-A247-E9E7C157B81D}" srcOrd="0" destOrd="0" parTransId="{4CB44836-C2CF-4AA8-BA34-A77659A77488}" sibTransId="{CCEEA729-C04D-4448-A589-A37D8D561782}"/>
+    <dgm:cxn modelId="{C4358E67-9F7A-4327-9947-0C78643394CD}" type="presOf" srcId="{C7BEB2FE-AED9-45FD-B81D-72BB156D19C5}" destId="{28F9C158-4CB9-4B81-8B8A-868BB701D7A9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{873B579B-B8A6-4708-8665-18AB26F35095}" type="presOf" srcId="{E33AB835-336A-4FDC-93EA-D3EA1D6F37BE}" destId="{82704B38-A36E-419A-882A-EF7F92AC7E7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{DE972C58-0B1E-4A1C-BDC6-8EFDDCA2EC21}" type="presOf" srcId="{833B55A1-01FC-4FCE-80D0-E3203632AEC9}" destId="{219024EF-6C06-4E93-9935-6179FE2D8075}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{F33FDBB8-5FB6-4B68-8877-70638844B6AC}" type="presOf" srcId="{0351A5A2-D972-4800-99ED-A230BBE8F6A7}" destId="{38D3FC57-896A-4F37-BCEA-7B7A57E915C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{A8288290-16FC-4506-9192-353101BFEC6D}" type="presOf" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{D7EE1592-0F74-42C6-9575-FF62DEC8547F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{9A24F026-D4CE-4FBA-8BA9-FDF29631EF44}" type="presOf" srcId="{F7BFEA5A-4627-4B8C-8314-08D2B1588E79}" destId="{40515B34-1EDC-4272-B5A0-479DB9C417B7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{E61C2A81-20A6-4A80-A052-535F14619EBA}" type="presOf" srcId="{C8119D49-69F8-4BB3-9C6C-A747811CB5C6}" destId="{85405C32-1DD4-4C40-890B-4A732AFD31A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{EA5B8B84-33F4-4EC3-A636-A6E222067750}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{F8232FB3-AD0A-45B9-B15D-6D9029F7B968}" srcOrd="1" destOrd="0" parTransId="{305D1325-EE35-4655-9F7E-36AC24B358A2}" sibTransId="{058CEDB5-E417-4211-8468-43180856BB31}"/>
+    <dgm:cxn modelId="{3A3FD97B-010D-4996-99EB-46105B2F7F25}" type="presOf" srcId="{D901C1FA-8DBD-4CBE-AA5A-6B00988F1344}" destId="{D48FABAD-3B55-4EF9-8D57-84C9A006DD38}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{936D5AEF-DB98-45C1-AFE3-EA446157D4D3}" type="presOf" srcId="{1D68834C-C63C-44E8-B890-CC6C9E5EFC9F}" destId="{1CC9BA03-3E39-43C0-B537-1FF6DF8A3583}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{024EC33A-9C06-45A6-92A4-8B601354E1B4}" type="presOf" srcId="{17C36C6D-74D9-4A79-A0BB-52BA898F12A6}" destId="{A126E577-351D-43F2-8561-148D5F9417E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{8EC011D6-EB5D-48FA-923F-BC44BD03D177}" type="presOf" srcId="{54ED291A-66CE-4C85-AC0E-F52FC1CCEC73}" destId="{CBE7C4AD-28F2-42CF-8E04-9069CB93CB42}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{37B11933-9589-4B39-BEDE-444A03C53B51}" type="presOf" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{13CC17F0-CC6B-4D0E-BA51-687AAEFC8B1C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{38D4EBA5-15D3-4027-9449-037B2DD63F82}" type="presOf" srcId="{9671203F-587E-40E2-855A-89971883591F}" destId="{6E4B87EC-45DD-4C07-8019-F3322766BFB9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{B30274DE-C926-42E7-9237-1CC8E8905DA2}" type="presOf" srcId="{9E0B8A28-E2F4-4472-9A5E-566B26350FA7}" destId="{F2BB2AFD-8298-44C8-B5D6-462675C4014C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{AFBD9500-79E8-4D7F-9A01-9A4AB7F8DA21}" type="presOf" srcId="{B5F31875-2A46-409B-BB4C-F8115208C657}" destId="{853C189B-A55E-4DEF-A99A-4C5058A07E78}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{13891523-B160-4980-9833-BF1767776440}" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{3774AA08-19D6-47FB-83C7-0AD6CB078AB7}" srcOrd="5" destOrd="0" parTransId="{A54C1535-6884-4D80-B0BD-B27A1E7CA4F6}" sibTransId="{C47B8AF3-0008-4779-932B-27381D56A257}"/>
+    <dgm:cxn modelId="{B0B82DD6-C503-47EB-8310-C41D873AA6CC}" type="presOf" srcId="{C4F38F9F-6F27-4440-A403-B96A88769701}" destId="{AE17A2B0-20F9-476C-91D1-BC66885CCD28}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{C8FF56C8-9CE3-497C-AB70-A0DBBA91E65A}" type="presOf" srcId="{01C7EDE9-2CFC-412F-9066-C25EA6CE353B}" destId="{5A8165B4-17F0-427C-9382-FD8586D7FBC6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{ABE5AA2F-2CD7-4E5E-949C-C1044CDEF376}" type="presOf" srcId="{9926BE73-00F8-437B-AF4A-E11C4736FDF1}" destId="{E6C9C401-8496-49EA-86E3-8066F7E62086}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{8A9DDE63-D8D8-406F-ABF2-6D6643594830}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{F40968D4-D975-4188-8DDA-036453A1008D}" srcOrd="2" destOrd="0" parTransId="{B28DB0A8-F257-470E-85C2-65154D1DFB98}" sibTransId="{67B48DDF-F5C1-476B-A364-B8247B4AAE99}"/>
+    <dgm:cxn modelId="{C89D603A-9863-4804-AD55-5D03EE2A5B5F}" srcId="{3774AA08-19D6-47FB-83C7-0AD6CB078AB7}" destId="{9926BE73-00F8-437B-AF4A-E11C4736FDF1}" srcOrd="0" destOrd="0" parTransId="{5F4359E2-7A99-4EC4-9586-8CD1DCAAB430}" sibTransId="{9470DEC1-D381-4F66-ABEE-0BA410664AA9}"/>
+    <dgm:cxn modelId="{59D7139B-26D4-496D-9284-0C7CE2B765B6}" type="presOf" srcId="{0FC4D04A-BEB0-4630-93B5-1C08894AFF60}" destId="{512561F3-A39C-4577-A9F2-A39D61D7A19B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{4DD7B6ED-64AA-4CC0-9249-72B5F4D18316}" type="presOf" srcId="{3774AA08-19D6-47FB-83C7-0AD6CB078AB7}" destId="{56BC1FB2-B2EC-4340-9917-3FAA06520887}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{E7FAD02F-FB1D-436D-8A18-6BF1F77A39DE}" type="presOf" srcId="{8D354F19-FEDF-4F0E-B3B6-944EC2E0E59C}" destId="{1AB5A7AD-76F8-44B9-906C-9C2C500AF7C7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{912CE592-3AEA-4181-A5BD-7DB57BCF6C19}" type="presOf" srcId="{9E51A304-FC5F-4187-B6FC-DB20CAC0A857}" destId="{ADA2D9CA-7872-477B-B5F1-7CFE74FF2586}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{F38478C3-99A1-4F14-9852-B9B26B3F1336}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{EB8626B7-F6D3-4631-BB5C-8AD10CABFB79}" srcOrd="2" destOrd="0" parTransId="{A6D7812C-B035-4DCE-A19F-AA9A9E9D16BF}" sibTransId="{9AECDF1E-98D0-4FC6-9DE8-CF1A5937CCAC}"/>
+    <dgm:cxn modelId="{3562A6D1-2F12-45E5-AFAF-E8866F936483}" type="presOf" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{1A4978D9-614F-460E-8346-61943E68B541}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{F2B1D45F-5108-471B-AE56-B768B8A059D7}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{9E51A304-FC5F-4187-B6FC-DB20CAC0A857}" srcOrd="15" destOrd="0" parTransId="{453B66A3-5C75-45D4-B751-B171FE5D90B6}" sibTransId="{DCC09C04-7833-4B43-B4B7-527D8D12E2B9}"/>
+    <dgm:cxn modelId="{07AF2858-9FAF-4205-8DD7-CE617FF33AB7}" type="presOf" srcId="{BE171F4D-DD5C-413C-B713-29B371BE1E9C}" destId="{8A2B3744-2974-4A8E-9606-5ECE72738E36}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{D59EB46A-FD98-44FB-997F-4B8C29554A9C}" type="presOf" srcId="{C32B066A-E327-451B-9EA1-E72693ADFD71}" destId="{41AB5908-DE8D-4F06-B8E5-730289B4D80E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{EE4F1AE1-EE48-4003-B040-FE6883AC3404}" type="presOf" srcId="{163043EE-AEEB-46D5-A7D1-C03FADB7A8D6}" destId="{D7041E11-ECC5-4EB0-BF38-ABD58325A1B8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{21B0C95D-7313-4C4B-AF86-AFE897AA40CC}" type="presOf" srcId="{61EDA626-0474-40AC-8C13-6E6B6843E2DA}" destId="{E7EF9DE2-0BAA-449A-BE1C-B130BC5D66F0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{A6365522-A66F-4B0E-BA89-88989C08F001}" type="presOf" srcId="{212B6D1C-E5AD-429C-B285-04BAB5999AB8}" destId="{F3FB1874-88CB-4075-A1B3-4A67CF4A63BB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{BD158526-3195-4351-A379-D72ADE80407C}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{66511BC6-A4B2-417F-95C5-632DCAF5EFD8}" srcOrd="1" destOrd="0" parTransId="{1D68834C-C63C-44E8-B890-CC6C9E5EFC9F}" sibTransId="{2FF8B175-019F-46D2-91BA-AE25625E4CD9}"/>
+    <dgm:cxn modelId="{9DBC8AAC-005D-44BF-8ACD-0484DC9724C7}" type="presOf" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{E3743CCE-B433-4A0A-BDD4-FA1AAC75F4AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{75DC00EB-478C-4AF0-82CC-EE83F4464CDC}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{856B25BD-67D6-4759-97C2-83EF7954ADB6}" srcOrd="14" destOrd="0" parTransId="{73668456-7B98-4BC0-9215-F9A6C10EE6DC}" sibTransId="{2CC97A74-1D1D-432C-986F-582FB4F61162}"/>
+    <dgm:cxn modelId="{ED5F63B3-326E-4D75-8248-E43C117FF1B3}" type="presOf" srcId="{C4F38F9F-6F27-4440-A403-B96A88769701}" destId="{DFCF5355-0B4C-4E10-B26A-0594C02307EC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{D8B4CC7D-A8B0-43CD-9950-7D9345057841}" type="presOf" srcId="{9628DBEC-2BE9-46F9-AD6C-EB441F40214E}" destId="{FEDF61A1-7E36-4132-B66D-BC73936772B2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{5A2C8DF5-FCAC-4BAE-9B50-95CC5427F5FD}" type="presOf" srcId="{9E51A304-FC5F-4187-B6FC-DB20CAC0A857}" destId="{6FDE27FD-F369-4BA8-AE8C-4FD90941DE1B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{F2E3A646-DF1B-49BA-B4BF-8135E421ADF8}" type="presOf" srcId="{A54C1535-6884-4D80-B0BD-B27A1E7CA4F6}" destId="{BA9D324D-5CE0-4482-9EA3-E69250758049}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{57E2C316-8B4D-4CFF-A27B-06FE5A90AA5F}" type="presOf" srcId="{0A27F08D-E931-4484-8B94-850866E64C23}" destId="{AD30FA7F-1B8B-4992-BD15-DA45FB206D41}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{3DF0177C-66C5-4D22-BA3D-7A7268D07B06}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{4C5B5FA4-1003-4AA8-9E61-1CD19CDFFD53}" srcOrd="7" destOrd="0" parTransId="{01C7EDE9-2CFC-412F-9066-C25EA6CE353B}" sibTransId="{75586CFF-8715-407E-A523-7FC7371C1B23}"/>
+    <dgm:cxn modelId="{6C3EB3F5-2B30-42F2-ADD8-1B785033D02D}" type="presOf" srcId="{163043EE-AEEB-46D5-A7D1-C03FADB7A8D6}" destId="{5E3C1FDD-C091-4692-9254-71CEB7263643}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{AD2E9CE4-E964-447D-AC0D-B80EF52AE42E}" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" srcOrd="2" destOrd="0" parTransId="{C7BEB2FE-AED9-45FD-B81D-72BB156D19C5}" sibTransId="{B2A85A1A-033D-44A7-80A6-9C67423502A6}"/>
+    <dgm:cxn modelId="{5C07020E-08CC-4BE8-A1A2-2E693DC87879}" type="presOf" srcId="{E5008AA6-3202-468A-940A-B4CA9F91832E}" destId="{F5AFC97D-9474-46A0-906E-907CCFED5015}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{4F102AF8-E0C6-44AD-8A72-4DB112560CCA}" type="presOf" srcId="{8E144EDD-B68D-4430-BF2C-8C5C70461D7A}" destId="{F34E9B8F-FC8F-45DF-A59B-19E558AE7D50}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{B8AF89F3-1FCB-441D-89CC-3980ACADD650}" type="presOf" srcId="{304A416E-2327-4FC0-B31B-B9DA3D1369CB}" destId="{DEC215DD-4B0A-4AFF-9101-C6D4E053239F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{E797DBA4-B7B1-4C8D-8DD4-5C8859B189C8}" type="presOf" srcId="{D80BBB47-C499-473A-88F3-A4A8C1E7D315}" destId="{9ED57698-B7E9-4788-92BA-5EC00B52F474}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{142CB9D8-1A14-45BF-A234-2ACF16B6140F}" type="presOf" srcId="{F7BFEA5A-4627-4B8C-8314-08D2B1588E79}" destId="{79BAD672-884F-42E4-81DC-F9E7ABE2A234}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{216F836E-02CE-4981-90D0-8CE24AA1DE0B}" type="presOf" srcId="{2AD8FECC-100D-4C9E-8A64-DE1BE1D7BAED}" destId="{CC2BE142-66BF-4315-99B9-A4C78EF7034F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{1CB3CCF7-31AD-4889-A44A-BBB143407EA1}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{EBE0A63E-8068-4C04-83E3-44D88F3017B6}" srcOrd="13" destOrd="0" parTransId="{2167D066-7FDA-46FF-9411-42E360A0489E}" sibTransId="{56BB5C97-86C7-43CF-A0FE-4D5E0F87B00D}"/>
+    <dgm:cxn modelId="{3996EB85-7F85-406A-972E-066FEAE281BF}" type="presOf" srcId="{856B25BD-67D6-4759-97C2-83EF7954ADB6}" destId="{CDBA998B-FDDA-4652-85EA-91AC1BCEE5B8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{FFAF3873-001C-4F9D-BAB7-8B264B9E8ABF}" type="presOf" srcId="{78F62DB2-4BE0-4444-9D74-DFF33C39DA0F}" destId="{2B009C29-9F9F-4898-9A67-64BC3CA9EF87}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{B042C712-E928-4EF7-A3B0-96F797C9B701}" type="presOf" srcId="{8C874F93-F615-47EF-8596-7B82B61279DC}" destId="{A0886CB0-3F60-41F0-A82F-05C417E12B26}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{4B9E85C2-6E73-4201-AC1D-9C5B15B21D8F}" type="presOf" srcId="{66511BC6-A4B2-417F-95C5-632DCAF5EFD8}" destId="{60B64B88-EFBA-47F8-B93D-B161004F4B07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{557341A6-9149-42E9-BA19-1D133294C4A7}" type="presOf" srcId="{66511BC6-A4B2-417F-95C5-632DCAF5EFD8}" destId="{33A04436-C46E-4890-8ECC-0436E1A70BD7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{7A04FF78-AB92-4872-AA58-0DA802EF6B29}" type="presOf" srcId="{BE171F4D-DD5C-413C-B713-29B371BE1E9C}" destId="{AC06AFBA-ED0B-4197-BE03-38A4D6BAD637}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{66431F84-DE53-4EED-BDCD-77653ADD9A7D}" type="presOf" srcId="{2AD8FECC-100D-4C9E-8A64-DE1BE1D7BAED}" destId="{BBCB5D66-E6F3-4AEB-A2E3-4B43695CB367}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{FF2BEBEF-F515-4C5C-A771-ABFBAB3535D0}" type="presOf" srcId="{7A151371-2C1E-44D6-96F0-A457937040B8}" destId="{1718EADA-2EE9-42A6-9B91-3A4E21470202}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{8B0B2179-ACD4-4E99-B351-23CB644E9EEC}" type="presOf" srcId="{73EC8508-4693-4594-B7D0-095AC55E0CB1}" destId="{61FFA202-B12C-4623-B3BA-6DB214C14956}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{8CD5D720-808C-4279-A0CB-A58037D6F3FF}" type="presOf" srcId="{DA8D3958-9EED-4560-9A31-6F5D07D81C68}" destId="{6956F405-C1B9-4860-9526-33EBF2578243}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{6FCFFFC2-A735-430C-9468-291EB8776594}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{4E8A4E51-3572-4F58-AF9A-7B078A6F0327}" srcOrd="14" destOrd="0" parTransId="{51E658E9-C6E5-4AF1-B015-09D9A5945020}" sibTransId="{B3816720-0021-49A0-8A4E-4F49312A9D17}"/>
+    <dgm:cxn modelId="{41006EFD-2287-4856-84CB-6AB913B9F97D}" type="presOf" srcId="{54ED291A-66CE-4C85-AC0E-F52FC1CCEC73}" destId="{090017CE-790D-4A33-9B85-ED4CF1AD85F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{07DFCCDB-DF00-4AC6-9697-8920B774ACE2}" type="presOf" srcId="{D998BC7D-3E73-4072-9894-E11ACE7D8F3E}" destId="{551E762A-A4CB-4C11-B444-756DAAEEEC4D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{291505C4-55AE-4A5B-BAAE-FE60BD0998F5}" type="presOf" srcId="{5F4359E2-7A99-4EC4-9586-8CD1DCAAB430}" destId="{82F7FBFC-E3E3-43B4-BFF9-A585C9F60841}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{97E5BAAE-5211-4494-A006-177528883083}" type="presOf" srcId="{76852895-DE6A-4965-AEFB-41828806B6AA}" destId="{AE74E30F-81F0-4C0E-B821-3CA473732733}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{D8CD40D1-716D-4424-8F80-E004C5A9FDBF}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{9628DBEC-2BE9-46F9-AD6C-EB441F40214E}" srcOrd="4" destOrd="0" parTransId="{A509A8EE-7CEC-42A1-B97E-8C41DFC16F2F}" sibTransId="{D43E4BD6-91EE-461F-B674-F170C4E79ACF}"/>
+    <dgm:cxn modelId="{58DC4C16-8C5F-48DF-BC6B-34670BDAD53A}" type="presOf" srcId="{4C5B5FA4-1003-4AA8-9E61-1CD19CDFFD53}" destId="{EF8F598A-6189-4B07-B1B6-78174FA9564E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{BAAFC0C1-78F5-4702-94C8-2F3AA1D28D46}" type="presOf" srcId="{3FE50685-761E-4A69-9EE1-3DA36B997AFA}" destId="{5BA9685C-0906-4E5F-AAD9-069246E4B1A6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{B11D4373-DD0F-4E60-8CCC-12AEA4D1D927}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{6FF10B12-FE55-4D61-ABB2-9A37D09F8764}" srcOrd="6" destOrd="0" parTransId="{F1733511-FE67-4833-929B-AA481DD8D8F2}" sibTransId="{45E29EA4-77B0-4AF2-8BB3-792D34C90EE4}"/>
+    <dgm:cxn modelId="{99BAD5AC-85A5-45C5-9B7E-FA9BF651FDAE}" type="presOf" srcId="{6FF10B12-FE55-4D61-ABB2-9A37D09F8764}" destId="{0D90176F-842A-4EC0-8044-1761284E6BBB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{73474E1B-24B3-4EAF-9726-687D4A34D07D}" type="presOf" srcId="{5302DFCA-3DF7-45AB-92A0-E52C91D23D62}" destId="{E44026F9-8E1B-4EBC-814D-62D527BD24F3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{AE7FBA26-43A2-4A3B-90F7-16C83C2CDB66}" type="presOf" srcId="{51132D38-F616-4313-943F-12DA72DEDFB4}" destId="{4DE7357D-92C7-4024-AC35-A03A6005101F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{9DFF9E9C-EB11-4237-9BDD-C229C7906645}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{833B55A1-01FC-4FCE-80D0-E3203632AEC9}" srcOrd="0" destOrd="0" parTransId="{C8119D49-69F8-4BB3-9C6C-A747811CB5C6}" sibTransId="{4093610E-E868-4385-A4BA-CA59AD9996E0}"/>
+    <dgm:cxn modelId="{B181133A-2AC4-4B30-82E5-FFA774669B33}" type="presOf" srcId="{70BF5DB8-B58D-44B5-81B0-5A77811B6E1E}" destId="{EF7294EB-1CA4-4F01-8B40-63288D9E7AAA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{5AE2846C-9DAA-4412-B577-DB9F11316D3F}" type="presOf" srcId="{D901C1FA-8DBD-4CBE-AA5A-6B00988F1344}" destId="{C04472FD-289A-4361-95FF-FBD5D2C21F51}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{37EFE171-6344-4B56-A342-916C5CE5AB1E}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{7A151371-2C1E-44D6-96F0-A457937040B8}" srcOrd="5" destOrd="0" parTransId="{C32B066A-E327-451B-9EA1-E72693ADFD71}" sibTransId="{40E95237-6445-4011-8041-E6749C2CB624}"/>
+    <dgm:cxn modelId="{12A3949F-B908-4C1D-B3A2-693365D9F26C}" type="presOf" srcId="{B5F31875-2A46-409B-BB4C-F8115208C657}" destId="{61185DE7-4631-40F4-9C46-427CDC62133A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{AD8729D5-7621-4C3E-A9A0-18B8C21AD617}" type="presOf" srcId="{59583D0D-A327-4B58-A389-210C62410B73}" destId="{8FCACA15-864B-4B6B-9645-436C803FF44B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{B7852551-A323-420D-8354-534FF1928ACB}" type="presOf" srcId="{DD95B110-E387-4AB0-B2C5-4449C11881B4}" destId="{0A0A35BC-105D-44CD-B134-C667C9379B2C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{5FAB30C4-FB38-47F7-BE5B-8F73CFB8669E}" type="presOf" srcId="{A509A8EE-7CEC-42A1-B97E-8C41DFC16F2F}" destId="{76F62190-3E68-49C7-B378-2A97E0188288}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{C25C3A2C-419E-4E96-8F73-18AEBC201CA7}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{B5F31875-2A46-409B-BB4C-F8115208C657}" srcOrd="12" destOrd="0" parTransId="{0555BD20-44D1-4D87-B750-36B8F07EDDB9}" sibTransId="{0C8B291C-FCD7-4AE4-AF98-8E0604D78209}"/>
+    <dgm:cxn modelId="{811E6524-E58C-45B4-8C27-732085A0B007}" type="presOf" srcId="{453B66A3-5C75-45D4-B751-B171FE5D90B6}" destId="{3D009D50-9CFE-4667-9A29-15CD043289A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{529B7E32-4431-4A55-99A7-3EF3F9B1F2B9}" type="presOf" srcId="{2B077780-3556-4562-9415-2D9CA5C9C56E}" destId="{22B3718B-92B6-477B-872D-C9B599392348}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{117220FF-18F6-4572-A0B8-A3E784EAED53}" type="presOf" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{6973829F-0F50-4091-B331-26B70335AF92}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{C5799622-2145-4139-83CB-E67E71A7E28A}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{9671203F-587E-40E2-855A-89971883591F}" srcOrd="10" destOrd="0" parTransId="{F748F1EB-D22F-4BBD-80CD-63CD207493D6}" sibTransId="{AED8DBA0-DE14-4386-B41B-1FA6A5F28B50}"/>
+    <dgm:cxn modelId="{734B29F5-948A-4292-996F-350A8B9F601C}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{147DA98C-812C-4A00-86C9-81284A2D5AA7}" srcOrd="13" destOrd="0" parTransId="{D47E14C7-D276-401A-8E15-F490BEC5902F}" sibTransId="{A853E67B-A59F-4EC2-AF1B-ADBE3AA4DECA}"/>
+    <dgm:cxn modelId="{14D5E6FD-2E5E-4A99-92EA-17136A5AF262}" type="presOf" srcId="{614701A8-875B-434A-B671-83B309E977FC}" destId="{13122561-D041-4F05-B33D-1E3D06C11B36}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{9BE2A242-2202-449A-AF80-BDF1569167F8}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{67EA6C06-40D4-4BA7-8B04-01A3168DAF4B}" srcOrd="7" destOrd="0" parTransId="{CCE1CAF6-5F09-46D9-B294-3F39A5868EFD}" sibTransId="{9015776E-3622-471D-936F-1E95784EA3AB}"/>
+    <dgm:cxn modelId="{C3279AC0-46E6-404A-94A5-6E40E751EB8B}" type="presOf" srcId="{856B25BD-67D6-4759-97C2-83EF7954ADB6}" destId="{1CC98413-70BB-4BEC-86C1-86F5FA4B01EF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{D9F97368-42F6-44E4-936A-CA6EF98067C7}" type="presOf" srcId="{83DDDEF3-4777-4816-B0E6-5F0696E013D6}" destId="{623FF216-1218-4793-94C6-D198C9E65FD4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{D6419358-08E7-4178-AC1A-120CF8C50AE9}" type="presOf" srcId="{7A151371-2C1E-44D6-96F0-A457937040B8}" destId="{4129F876-305E-4EF2-A4BB-62CEDC0DE270}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{6A027C25-871E-4A45-8143-76A4FEDB5929}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{23DDFFB8-474A-462B-ADF9-61045285BD04}" srcOrd="10" destOrd="0" parTransId="{13182FB0-FB67-4C9D-8399-1CDA050293AD}" sibTransId="{CACF7069-A02B-4F10-BFC6-27BE62490C61}"/>
-    <dgm:cxn modelId="{FD266738-6CA9-433C-894C-B00BF1B57493}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{D8C4FFFE-ABAF-4685-9313-0C1955821D3A}" srcOrd="9" destOrd="0" parTransId="{C8681AFA-70D6-4EEE-BE9C-6F35299DB9DF}" sibTransId="{F9435572-B04E-4E6A-92F0-725A5A17AAF0}"/>
+    <dgm:cxn modelId="{BF9D1CE7-A8FC-4047-983B-9D2C4D64906A}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{3FE50685-761E-4A69-9EE1-3DA36B997AFA}" srcOrd="1" destOrd="0" parTransId="{0A024630-A435-49CF-9A6D-F88C0CBB515C}" sibTransId="{28FD3DEB-DD60-443F-B83A-18557DFED8AF}"/>
+    <dgm:cxn modelId="{935C6428-2363-4290-8043-8E7A57DF0A4D}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{163043EE-AEEB-46D5-A7D1-C03FADB7A8D6}" srcOrd="4" destOrd="0" parTransId="{19B84401-C10A-4B8C-9E77-9358F85F4E30}" sibTransId="{8AE29FDE-ABD4-445E-9AA7-BC8EC9F7701A}"/>
+    <dgm:cxn modelId="{1FDF5E7F-0B29-497C-A864-9DC66B6BE8AA}" type="presOf" srcId="{304A416E-2327-4FC0-B31B-B9DA3D1369CB}" destId="{75107F7F-77CA-42BD-B563-01ECDDBBBE25}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{F4236D5C-C723-403B-8F21-89727D9BD3B1}" type="presOf" srcId="{833B55A1-01FC-4FCE-80D0-E3203632AEC9}" destId="{E9832EA9-B84D-4BB6-BACE-9A378DB1A689}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{8248894A-E530-46C8-B9BF-6EE5E02E5BB8}" type="presOf" srcId="{356839F7-09BC-4AAA-A247-E9E7C157B81D}" destId="{869F9FB7-617E-4924-9052-18EDE96D6447}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{23321ADB-01DD-4BAA-99A0-E79968AEF709}" type="presOf" srcId="{F40968D4-D975-4188-8DDA-036453A1008D}" destId="{5373D55A-2E52-4D74-8C82-F76D619C6CA9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{8AC5CDDC-DAF7-4B99-BA28-4194E4E98209}" type="presOf" srcId="{F748F1EB-D22F-4BBD-80CD-63CD207493D6}" destId="{AE1584E2-E1B1-41E9-B27F-6072E11934BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{2ED8C77A-49AF-4D58-8400-4A4316D03012}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{DD95B110-E387-4AB0-B2C5-4449C11881B4}" srcOrd="2" destOrd="0" parTransId="{0FC4D04A-BEB0-4630-93B5-1C08894AFF60}" sibTransId="{C2B16B46-2D40-4D6B-A483-622DC815FD49}"/>
+    <dgm:cxn modelId="{1DDC6544-E20D-4C27-A99D-DE631A8E08FD}" type="presOf" srcId="{61EDA626-0474-40AC-8C13-6E6B6843E2DA}" destId="{3FE8BB55-D0DA-4F7F-A914-67E69C7A0CC7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{B60F3E87-0FF1-4C13-B7A8-71FEED50C445}" type="presOf" srcId="{0A27F08D-E931-4484-8B94-850866E64C23}" destId="{02B2EFE0-E93C-4423-9EC6-F30F5980A325}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{AB63EAEE-67DE-4C34-B508-AA6F22C0FB58}" type="presOf" srcId="{4CB44836-C2CF-4AA8-BA34-A77659A77488}" destId="{B795E79C-8009-490E-87CB-484277F06ED6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{5835E5A0-67BD-4725-BFB2-E29FBA5C222D}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{61EDA626-0474-40AC-8C13-6E6B6843E2DA}" srcOrd="6" destOrd="0" parTransId="{83DDDEF3-4777-4816-B0E6-5F0696E013D6}" sibTransId="{8FB9204E-65E8-4C92-909D-6E0321790492}"/>
+    <dgm:cxn modelId="{96916546-41BD-4025-B529-5FCA897607C3}" type="presOf" srcId="{9ECB0B19-2DAC-42B9-B544-EF2128DF8873}" destId="{DF080407-3181-4ED8-A41D-3D9710D3F348}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{0193D0EF-B284-4675-9E86-D75EB01381EF}" type="presOf" srcId="{39A155B1-A6C4-49BE-92D2-99271D2D440E}" destId="{6D962D35-D8F9-4849-BB33-7E881CAD7B11}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{C09CA496-20C8-4328-AE7F-72D3F0F14DBA}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{0A27F08D-E931-4484-8B94-850866E64C23}" srcOrd="8" destOrd="0" parTransId="{CF2E67F8-1690-45A7-8878-EC140F0DBE39}" sibTransId="{0D5E1BAC-0365-40E8-ABED-81B02D7021EB}"/>
+    <dgm:cxn modelId="{7E6439B0-B1C0-430B-9204-52A6D346F083}" type="presOf" srcId="{2F3A1133-3EF2-4759-B14F-AF155FE0020F}" destId="{2D518F6A-B69C-4B63-A502-C39FF79395FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{7D69482F-B4D9-4961-8CA3-609382EA2EED}" type="presOf" srcId="{4C912BE9-72D7-44FE-A425-AA7A313474DC}" destId="{F8BCA2CD-5593-485E-AA70-2687F1512AF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{D517B99B-3B77-47E6-BFA6-180890CACB66}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{7C1A56A9-FA74-45DA-B3C6-609DEA9FE06F}" srcOrd="3" destOrd="0" parTransId="{9E0B8A28-E2F4-4472-9A5E-566B26350FA7}" sibTransId="{37E7B878-1B70-4E87-BD3E-B45FE1C19D97}"/>
+    <dgm:cxn modelId="{1E84DABD-D5A7-4326-913E-2CA401B20C63}" type="presOf" srcId="{8E144EDD-B68D-4430-BF2C-8C5C70461D7A}" destId="{ADCC6C62-501B-491F-8274-5644EEE3CB33}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{E990B17C-065A-4959-B97F-B058DE7E9475}" type="presOf" srcId="{33DDB360-EBEA-4B9B-855D-F4EA600AD847}" destId="{2FBD969B-D61E-4394-A8DB-9A7B364534BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{01CE7EB0-2B18-4A42-8E67-8B7693DFE2D6}" type="presOf" srcId="{F8232FB3-AD0A-45B9-B15D-6D9029F7B968}" destId="{C520CBA5-62E8-46EB-A3A9-D942086D2D4B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{1C74F18B-5F3C-4695-83ED-FB658730A73E}" type="presOf" srcId="{C8681AFA-70D6-4EEE-BE9C-6F35299DB9DF}" destId="{EF9A235D-F4AB-4389-B5A0-97AB25CA2C90}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{8719A75B-7500-4283-9734-21992E25EC56}" type="presOf" srcId="{0A024630-A435-49CF-9A6D-F88C0CBB515C}" destId="{2342CE06-CE82-4E7D-A838-8BBEE6AFB772}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{BECCF778-9DFC-44B1-AC1E-D05234224B15}" type="presOf" srcId="{DD95B110-E387-4AB0-B2C5-4449C11881B4}" destId="{97DF217A-DDCB-443C-8F35-5DECCCF01ED1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{36A2F668-1F5F-45F0-8222-5E0ADA43718B}" type="presOf" srcId="{7C1A56A9-FA74-45DA-B3C6-609DEA9FE06F}" destId="{68585BAF-A55F-490D-94D4-871F19C7B801}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{20CB9319-29F0-4A8A-BB6A-1CE57E9B065C}" type="presOf" srcId="{EB8626B7-F6D3-4631-BB5C-8AD10CABFB79}" destId="{FC14BDFF-2014-4FBD-8620-0120E57BB11E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{3724A506-1BC9-44E6-8345-C0425134BB37}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{304A416E-2327-4FC0-B31B-B9DA3D1369CB}" srcOrd="7" destOrd="0" parTransId="{78F62DB2-4BE0-4444-9D74-DFF33C39DA0F}" sibTransId="{DE666224-9A4C-4967-9EFA-329A083DA2C7}"/>
+    <dgm:cxn modelId="{C6302F4E-5B9D-40E6-8949-70325537F1B7}" type="presOf" srcId="{39A155B1-A6C4-49BE-92D2-99271D2D440E}" destId="{67F09E53-FA9A-4CFC-9940-39AB9CE699E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{3858A062-4F80-4E14-A1E9-71230B23B3F3}" type="presOf" srcId="{A6D7812C-B035-4DCE-A19F-AA9A9E9D16BF}" destId="{9ED1C0E0-7C81-4B29-B31F-3EF97B39DAA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{426526BB-7D09-4230-AA70-2ECCE3E2D6E4}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{D901C1FA-8DBD-4CBE-AA5A-6B00988F1344}" srcOrd="8" destOrd="0" parTransId="{33DDB360-EBEA-4B9B-855D-F4EA600AD847}" sibTransId="{CCDE16F8-202E-4BC8-879F-3E0D5A83C77B}"/>
+    <dgm:cxn modelId="{127713C4-0E2C-4A25-809F-4BA2CE15C2EF}" type="presOf" srcId="{5853F8BA-1286-4BED-A551-8B4ECBA09EEE}" destId="{44B6EB10-A5AA-49D7-BEA0-09E6F9B5F675}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{0E566C81-8157-42A8-9CB0-B794645A0AAF}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{951FEFBE-1B26-4693-B3AD-8444D624CEF8}" srcOrd="11" destOrd="0" parTransId="{0638E36C-ED03-4C42-8224-405F5D438B90}" sibTransId="{BB9D14AF-99BE-465A-A307-8803C71AE4A8}"/>
+    <dgm:cxn modelId="{95FDB1E8-148C-44BA-B17C-F7500675E6E0}" type="presOf" srcId="{F1733511-FE67-4833-929B-AA481DD8D8F2}" destId="{007CC8C1-40C7-498E-B776-2E6BAF236B51}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{0302F369-69E5-4F86-987C-23BE0F461A91}" type="presOf" srcId="{A3E7B80F-D82E-4546-9ED6-C7B018FC755A}" destId="{81E9F198-A9CB-45CB-8471-6B4FD9416063}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{14D5E6FD-2E5E-4A99-92EA-17136A5AF262}" type="presOf" srcId="{614701A8-875B-434A-B671-83B309E977FC}" destId="{13122561-D041-4F05-B33D-1E3D06C11B36}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{04C8881F-6C5C-4C65-80CB-890CF13A4C85}" type="presOf" srcId="{CF2E67F8-1690-45A7-8878-EC140F0DBE39}" destId="{C0E323E5-6436-444B-BFF2-82A311713F24}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{7CA64AC1-3E11-435D-8CFF-F474CDEEC589}" type="presOf" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{F43B1165-2631-49AF-9299-476706367576}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{8524059A-99BB-4A21-B29E-5CB6EC54F754}" type="presOf" srcId="{D8C4FFFE-ABAF-4685-9313-0C1955821D3A}" destId="{4E2E0299-5CBD-443B-A507-45BD218D523C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{25D70627-A0E6-4F59-8C99-8396C7F096BA}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{39A155B1-A6C4-49BE-92D2-99271D2D440E}" srcOrd="12" destOrd="0" parTransId="{51132D38-F616-4313-943F-12DA72DEDFB4}" sibTransId="{DB73FB22-4AD8-46D2-AF16-1A8BB9E870D3}"/>
+    <dgm:cxn modelId="{D5DCD1A9-2B08-4AF2-8891-C4BD8454F80E}" type="presOf" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{F6642BF1-99D1-454C-A3FC-C77F38E12C0A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{71DECAFD-2946-4060-A998-5C0369D3EA1E}" type="presOf" srcId="{23DDFFB8-474A-462B-ADF9-61045285BD04}" destId="{DE614F21-2570-4BC2-96A4-5B3B99B1F42B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{C4A08C1E-F270-48DE-AA1C-A860E37279AD}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{757E8F83-0C95-4552-B791-301ADA055666}" srcOrd="0" destOrd="0" parTransId="{212B6D1C-E5AD-429C-B285-04BAB5999AB8}" sibTransId="{2999CA21-D596-49A0-8AC5-7008D1E4AA89}"/>
+    <dgm:cxn modelId="{5CBB4F78-B395-4583-970E-2A59FFFDAF21}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{76852895-DE6A-4965-AEFB-41828806B6AA}" srcOrd="8" destOrd="0" parTransId="{2C182201-9B04-47F8-8DD4-BB4E1F463B10}" sibTransId="{5412F20E-1D54-4220-8C5A-109D0356D311}"/>
+    <dgm:cxn modelId="{4F102634-26EF-4BB4-854E-4CCC439AF1A0}" type="presOf" srcId="{CCE1CAF6-5F09-46D9-B294-3F39A5868EFD}" destId="{AE052854-0E0F-4187-888E-0D85F3275199}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{C54A5B82-B144-4763-9B43-4893381C3A03}" type="presOf" srcId="{A167FCB0-CC9E-4A9A-B628-A90A750F4870}" destId="{0A9AF60C-A7CD-4D1A-A09A-86296EC6A2E0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{512D9033-F154-4F19-9550-B4AA15D22E7F}" type="presOf" srcId="{30296546-C4D8-41A8-9F47-E94D7D60757F}" destId="{3DACB5FF-0445-4EEC-800E-A64D382111A2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{D2B16152-E3B3-4793-8EAF-950A317D85BD}" type="presOf" srcId="{0555BD20-44D1-4D87-B750-36B8F07EDDB9}" destId="{F404BF87-2BC4-451C-B9BE-74CC053E1ADC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{F672C437-96BF-4707-9367-FBBDFD89E416}" type="presOf" srcId="{5FDA32BF-C7A3-4A2A-9D36-C135B53FBEA7}" destId="{1DF613DF-DF2E-4392-9D60-80C45E1C63E4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{EAA1B642-8E12-4DB1-8FCF-122B08F9689D}" type="presOf" srcId="{3774AA08-19D6-47FB-83C7-0AD6CB078AB7}" destId="{D941231C-5681-4CAC-BD79-1C31CA98ACFB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{1447ADC5-8A5A-499F-BC50-5581E9B6550B}" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{C4F38F9F-6F27-4440-A403-B96A88769701}" srcOrd="0" destOrd="0" parTransId="{DA8D3958-9EED-4560-9A31-6F5D07D81C68}" sibTransId="{1A114AAC-3F6B-4092-980F-875D262A046D}"/>
+    <dgm:cxn modelId="{BCB51068-ECC4-4A8B-BF19-70D24AC0E8AE}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{2B077780-3556-4562-9415-2D9CA5C9C56E}" srcOrd="11" destOrd="0" parTransId="{A0873F6A-3D8F-468D-AA59-DB02B1916167}" sibTransId="{F4F2512A-316C-4343-BA16-1FF90E25B187}"/>
+    <dgm:cxn modelId="{080BC751-2410-4CF1-853E-17CEC64997AF}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{2AD8FECC-100D-4C9E-8A64-DE1BE1D7BAED}" srcOrd="0" destOrd="0" parTransId="{5C919EF6-CDEF-4397-A296-239AEE07EF7C}" sibTransId="{708A23BE-741F-489D-AFEA-3F38F372132C}"/>
+    <dgm:cxn modelId="{EED2C1AC-97E2-474F-86E7-1C122B59950E}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{8E144EDD-B68D-4430-BF2C-8C5C70461D7A}" srcOrd="5" destOrd="0" parTransId="{5FDA32BF-C7A3-4A2A-9D36-C135B53FBEA7}" sibTransId="{368FE1CC-5EAC-4BDC-BF67-36593F3F3002}"/>
+    <dgm:cxn modelId="{4DCBA676-0166-43AF-9D97-8308E3A5E56E}" type="presOf" srcId="{4E8A4E51-3572-4F58-AF9A-7B078A6F0327}" destId="{0030AEC1-B970-4E87-A750-EAEF08F0132D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{82CA5EFA-B0F7-4B78-8B66-1A56519D41AC}" type="presOf" srcId="{9F390CFD-A09D-4279-9341-732B5455C2BF}" destId="{8AF0A2DE-F26C-49C5-B23D-1E0FE9E4D6BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{73D7B204-4FC3-4F68-8F26-E0F8FA891CD1}" type="presOf" srcId="{B28DB0A8-F257-470E-85C2-65154D1DFB98}" destId="{4B0DE472-86BE-44D5-9CD4-8308FF84CB50}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{10CC98A5-CA14-459B-9B4A-294118806662}" type="presOf" srcId="{9671203F-587E-40E2-855A-89971883591F}" destId="{47333240-1AFA-4ABF-A49C-6ABE88F3A11D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{25E1E7F7-5C9C-41B5-A5E2-B57C20BD7B47}" type="presOf" srcId="{70BF5DB8-B58D-44B5-81B0-5A77811B6E1E}" destId="{1D733529-8D5A-4A2D-88CE-857C4869C4E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{20797EE7-A194-4C7B-B4C5-7121EB5D3B8E}" type="presOf" srcId="{23DDFFB8-474A-462B-ADF9-61045285BD04}" destId="{307B44FF-EFFC-4852-AD0B-87250E947806}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{192C9235-8EED-4348-ADDC-580A82D09DE7}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{54ED291A-66CE-4C85-AC0E-F52FC1CCEC73}" srcOrd="3" destOrd="0" parTransId="{D998BC7D-3E73-4072-9894-E11ACE7D8F3E}" sibTransId="{A1D3DEAD-2C70-4455-91D7-EE624E532D25}"/>
+    <dgm:cxn modelId="{E506395B-5CBA-42FC-84AA-61CEA1EEE422}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{E5008AA6-3202-468A-940A-B4CA9F91832E}" srcOrd="13" destOrd="0" parTransId="{3DF4EF37-E315-41CC-AAFC-EA49AAB11DED}" sibTransId="{7E34A893-6ADD-461E-896B-AD6A5D4F08C8}"/>
+    <dgm:cxn modelId="{142C188E-D427-40D8-B784-62154C2E5980}" type="presOf" srcId="{2167D066-7FDA-46FF-9411-42E360A0489E}" destId="{C9E40580-5EDB-48E5-971D-E7FD32140778}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{C542E87A-9AC2-4C73-8471-A58113429E39}" type="presOf" srcId="{5DC53866-0599-4C48-B03C-5B3C75F0D4F0}" destId="{B8A95496-A02C-4A87-A119-CEDC962B5F64}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{BC8B755C-8A1F-46D8-9FCE-AF43C9E0556B}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{8D354F19-FEDF-4F0E-B3B6-944EC2E0E59C}" srcOrd="9" destOrd="0" parTransId="{5B90E0DE-D461-46C7-9EEE-AC33458EC43A}" sibTransId="{DA6E414A-2296-417F-A565-F73F01DDBBEE}"/>
+    <dgm:cxn modelId="{AD8E8397-D90B-46C2-8196-076CB7A994E0}" type="presOf" srcId="{5B90E0DE-D461-46C7-9EEE-AC33458EC43A}" destId="{A1D3CBE2-9DB4-4C15-BF15-F19286B47762}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{F31DFCBD-CBFD-4E16-986D-64A161D3A132}" type="presOf" srcId="{7C1A56A9-FA74-45DA-B3C6-609DEA9FE06F}" destId="{F0CB3CB4-0216-4720-BF5B-8803A3F8115B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{C3EA670D-4915-437F-A1C2-50B620168FED}" type="presOf" srcId="{757E8F83-0C95-4552-B791-301ADA055666}" destId="{6D6C19B5-CEDF-4F45-B065-A18043A46E42}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{C80D9BDE-0EFF-4FC4-AA7D-8943574F0006}" type="presOf" srcId="{757E8F83-0C95-4552-B791-301ADA055666}" destId="{92065039-7496-4E4B-8FD4-50498772DD9F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{DA0DB10E-EF65-407E-AAB0-99E6AD72CAB0}" type="presOf" srcId="{31BC65FF-7ADE-4CE7-8C9A-1CBB20555114}" destId="{1496533C-6844-4EA0-9783-3AF6982DBE83}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{FEFAC42B-BC2E-4541-B8B3-E26A625F45FB}" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{73EC8508-4693-4594-B7D0-095AC55E0CB1}" srcOrd="3" destOrd="0" parTransId="{9ECB0B19-2DAC-42B9-B544-EF2128DF8873}" sibTransId="{E6C5127A-9349-4A79-BD3B-ED0F73057F10}"/>
     <dgm:cxn modelId="{C874EBA1-6426-4CD9-A8AF-A678A94EF502}" type="presOf" srcId="{5DC53866-0599-4C48-B03C-5B3C75F0D4F0}" destId="{38DDE44D-9208-4F70-BBDD-CE751843607B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{21B0C95D-7313-4C4B-AF86-AFE897AA40CC}" type="presOf" srcId="{61EDA626-0474-40AC-8C13-6E6B6843E2DA}" destId="{E7EF9DE2-0BAA-449A-BE1C-B130BC5D66F0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{F672C437-96BF-4707-9367-FBBDFD89E416}" type="presOf" srcId="{5FDA32BF-C7A3-4A2A-9D36-C135B53FBEA7}" destId="{1DF613DF-DF2E-4392-9D60-80C45E1C63E4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{8CD5D720-808C-4279-A0CB-A58037D6F3FF}" type="presOf" srcId="{DA8D3958-9EED-4560-9A31-6F5D07D81C68}" destId="{6956F405-C1B9-4860-9526-33EBF2578243}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{E7FAD02F-FB1D-436D-8A18-6BF1F77A39DE}" type="presOf" srcId="{8D354F19-FEDF-4F0E-B3B6-944EC2E0E59C}" destId="{1AB5A7AD-76F8-44B9-906C-9C2C500AF7C7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{1196BAC5-B908-4428-A100-88A13ED45797}" srcId="{73EC8508-4693-4594-B7D0-095AC55E0CB1}" destId="{356839F7-09BC-4AAA-A247-E9E7C157B81D}" srcOrd="0" destOrd="0" parTransId="{4CB44836-C2CF-4AA8-BA34-A77659A77488}" sibTransId="{CCEEA729-C04D-4448-A589-A37D8D561782}"/>
-    <dgm:cxn modelId="{EA5B8B84-33F4-4EC3-A636-A6E222067750}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{F8232FB3-AD0A-45B9-B15D-6D9029F7B968}" srcOrd="1" destOrd="0" parTransId="{305D1325-EE35-4655-9F7E-36AC24B358A2}" sibTransId="{058CEDB5-E417-4211-8468-43180856BB31}"/>
-    <dgm:cxn modelId="{25D70627-A0E6-4F59-8C99-8396C7F096BA}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{39A155B1-A6C4-49BE-92D2-99271D2D440E}" srcOrd="12" destOrd="0" parTransId="{51132D38-F616-4313-943F-12DA72DEDFB4}" sibTransId="{DB73FB22-4AD8-46D2-AF16-1A8BB9E870D3}"/>
-    <dgm:cxn modelId="{9A24F026-D4CE-4FBA-8BA9-FDF29631EF44}" type="presOf" srcId="{F7BFEA5A-4627-4B8C-8314-08D2B1588E79}" destId="{40515B34-1EDC-4272-B5A0-479DB9C417B7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{3996EB85-7F85-406A-972E-066FEAE281BF}" type="presOf" srcId="{856B25BD-67D6-4759-97C2-83EF7954ADB6}" destId="{CDBA998B-FDDA-4652-85EA-91AC1BCEE5B8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{E30DF58B-8070-448D-AAE9-3CC79D325B93}" type="presOf" srcId="{F8232FB3-AD0A-45B9-B15D-6D9029F7B968}" destId="{110F5CA8-90A0-4FAC-98A2-D46E67449D2A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C6302F4E-5B9D-40E6-8949-70325537F1B7}" type="presOf" srcId="{39A155B1-A6C4-49BE-92D2-99271D2D440E}" destId="{67F09E53-FA9A-4CFC-9940-39AB9CE699E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{0FB9EAAD-7933-4A31-8014-EEE9F71D4BD3}" type="presOf" srcId="{356839F7-09BC-4AAA-A247-E9E7C157B81D}" destId="{8F9C9183-C52E-49DF-8CFE-FE43AFBFF463}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{537B3FF9-E8C7-4F1E-9F1B-834BBF5BA72F}" type="presOf" srcId="{2CAA8C5F-0773-49B4-A482-E1506FC3FF39}" destId="{B2B35F45-6FAA-4511-82CF-4B61D9D0936C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{B928A504-F013-4E95-9E5C-ACDB3F50FA2F}" type="presOf" srcId="{951FEFBE-1B26-4693-B3AD-8444D624CEF8}" destId="{773026D6-0B02-4118-BC09-30919B6B6BBC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{13B9F06D-3404-478B-8780-A466F6C0FA01}" srcId="{59583D0D-A327-4B58-A389-210C62410B73}" destId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" srcOrd="0" destOrd="0" parTransId="{71054EBE-96A0-46DD-BAB3-D4064B152CCD}" sibTransId="{FB327D8A-23F0-4E7E-8CF6-B3708539A988}"/>
+    <dgm:cxn modelId="{D566B693-63FD-473E-85C1-1822CFFEE83C}" type="presOf" srcId="{0638E36C-ED03-4C42-8224-405F5D438B90}" destId="{E9079EB3-F0A8-465F-AC70-A76EBC9767B4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{C8CBADF9-561F-4720-A8E7-2EA69D085751}" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" srcOrd="4" destOrd="0" parTransId="{0B331850-9836-4092-9A66-DFA59FFD27B6}" sibTransId="{172A1BDF-CCFA-4626-B945-F0FE0991C598}"/>
-    <dgm:cxn modelId="{1DDC6544-E20D-4C27-A99D-DE631A8E08FD}" type="presOf" srcId="{61EDA626-0474-40AC-8C13-6E6B6843E2DA}" destId="{3FE8BB55-D0DA-4F7F-A914-67E69C7A0CC7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C3EA670D-4915-437F-A1C2-50B620168FED}" type="presOf" srcId="{757E8F83-0C95-4552-B791-301ADA055666}" destId="{6D6C19B5-CEDF-4F45-B065-A18043A46E42}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{73D7B204-4FC3-4F68-8F26-E0F8FA891CD1}" type="presOf" srcId="{B28DB0A8-F257-470E-85C2-65154D1DFB98}" destId="{4B0DE472-86BE-44D5-9CD4-8308FF84CB50}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{20797EE7-A194-4C7B-B4C5-7121EB5D3B8E}" type="presOf" srcId="{23DDFFB8-474A-462B-ADF9-61045285BD04}" destId="{307B44FF-EFFC-4852-AD0B-87250E947806}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{B60F3E87-0FF1-4C13-B7A8-71FEED50C445}" type="presOf" srcId="{0A27F08D-E931-4484-8B94-850866E64C23}" destId="{02B2EFE0-E93C-4423-9EC6-F30F5980A325}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{58DC4C16-8C5F-48DF-BC6B-34670BDAD53A}" type="presOf" srcId="{4C5B5FA4-1003-4AA8-9E61-1CD19CDFFD53}" destId="{EF8F598A-6189-4B07-B1B6-78174FA9564E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{B928A504-F013-4E95-9E5C-ACDB3F50FA2F}" type="presOf" srcId="{951FEFBE-1B26-4693-B3AD-8444D624CEF8}" destId="{773026D6-0B02-4118-BC09-30919B6B6BBC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{4C2DE93E-AD73-42A1-B82E-731F2CE3CDED}" type="presOf" srcId="{13182FB0-FB67-4C9D-8399-1CDA050293AD}" destId="{74A1257A-2432-46CD-A49C-C57331A9C836}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{8B0B2179-ACD4-4E99-B351-23CB644E9EEC}" type="presOf" srcId="{73EC8508-4693-4594-B7D0-095AC55E0CB1}" destId="{61FFA202-B12C-4623-B3BA-6DB214C14956}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{8524059A-99BB-4A21-B29E-5CB6EC54F754}" type="presOf" srcId="{D8C4FFFE-ABAF-4685-9313-0C1955821D3A}" destId="{4E2E0299-5CBD-443B-A507-45BD218D523C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{74B89B15-D315-45AA-995E-CF7AECE90757}" type="presOf" srcId="{7D1CCA3D-C449-41BB-B869-9C58741A6E5D}" destId="{295501EE-C04B-407C-8489-4ECF8713090A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{71577A83-75D4-45D8-9A4F-C74893C13D42}" type="presOf" srcId="{951FEFBE-1B26-4693-B3AD-8444D624CEF8}" destId="{5B286CEC-A87E-4811-BA5D-A54C8926E524}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{E797DBA4-B7B1-4C8D-8DD4-5C8859B189C8}" type="presOf" srcId="{D80BBB47-C499-473A-88F3-A4A8C1E7D315}" destId="{9ED57698-B7E9-4788-92BA-5EC00B52F474}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{73474E1B-24B3-4EAF-9726-687D4A34D07D}" type="presOf" srcId="{5302DFCA-3DF7-45AB-92A0-E52C91D23D62}" destId="{E44026F9-8E1B-4EBC-814D-62D527BD24F3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{D2B16152-E3B3-4793-8EAF-950A317D85BD}" type="presOf" srcId="{0555BD20-44D1-4D87-B750-36B8F07EDDB9}" destId="{F404BF87-2BC4-451C-B9BE-74CC053E1ADC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{23321ADB-01DD-4BAA-99A0-E79968AEF709}" type="presOf" srcId="{F40968D4-D975-4188-8DDA-036453A1008D}" destId="{5373D55A-2E52-4D74-8C82-F76D619C6CA9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{142C188E-D427-40D8-B784-62154C2E5980}" type="presOf" srcId="{2167D066-7FDA-46FF-9411-42E360A0489E}" destId="{C9E40580-5EDB-48E5-971D-E7FD32140778}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{37093455-086E-4557-90BA-DD3EFCBCE7D5}" type="presOf" srcId="{73668456-7B98-4BC0-9215-F9A6C10EE6DC}" destId="{E1FE91A7-8864-4775-8CF5-68EE07F7E53C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{07AF2858-9FAF-4205-8DD7-CE617FF33AB7}" type="presOf" srcId="{BE171F4D-DD5C-413C-B713-29B371BE1E9C}" destId="{8A2B3744-2974-4A8E-9606-5ECE72738E36}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{0193D0EF-B284-4675-9E86-D75EB01381EF}" type="presOf" srcId="{39A155B1-A6C4-49BE-92D2-99271D2D440E}" destId="{6D962D35-D8F9-4849-BB33-7E881CAD7B11}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{AD8E8397-D90B-46C2-8196-076CB7A994E0}" type="presOf" srcId="{5B90E0DE-D461-46C7-9EEE-AC33458EC43A}" destId="{A1D3CBE2-9DB4-4C15-BF15-F19286B47762}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C3279AC0-46E6-404A-94A5-6E40E751EB8B}" type="presOf" srcId="{856B25BD-67D6-4759-97C2-83EF7954ADB6}" destId="{1CC98413-70BB-4BEC-86C1-86F5FA4B01EF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{E1A21B8B-9612-41D6-898E-FE81494E3A80}" type="presOf" srcId="{7D1CCA3D-C449-41BB-B869-9C58741A6E5D}" destId="{83600E4A-BC6D-497A-842B-716E3F689BF6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{F4236D5C-C723-403B-8F21-89727D9BD3B1}" type="presOf" srcId="{833B55A1-01FC-4FCE-80D0-E3203632AEC9}" destId="{E9832EA9-B84D-4BB6-BACE-9A378DB1A689}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{1E84DABD-D5A7-4326-913E-2CA401B20C63}" type="presOf" srcId="{8E144EDD-B68D-4430-BF2C-8C5C70461D7A}" destId="{ADCC6C62-501B-491F-8274-5644EEE3CB33}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{4DCBA676-0166-43AF-9D97-8308E3A5E56E}" type="presOf" srcId="{4E8A4E51-3572-4F58-AF9A-7B078A6F0327}" destId="{0030AEC1-B970-4E87-A750-EAEF08F0132D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{01CE7EB0-2B18-4A42-8E67-8B7693DFE2D6}" type="presOf" srcId="{F8232FB3-AD0A-45B9-B15D-6D9029F7B968}" destId="{C520CBA5-62E8-46EB-A3A9-D942086D2D4B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{4E0CD290-992B-4690-95D3-8683F67CA240}" type="presOf" srcId="{EBE0A63E-8068-4C04-83E3-44D88F3017B6}" destId="{0BD26B8E-C475-4809-B31F-58448FDA3216}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{B30274DE-C926-42E7-9237-1CC8E8905DA2}" type="presOf" srcId="{9E0B8A28-E2F4-4472-9A5E-566B26350FA7}" destId="{F2BB2AFD-8298-44C8-B5D6-462675C4014C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{FFAF3873-001C-4F9D-BAB7-8B264B9E8ABF}" type="presOf" srcId="{78F62DB2-4BE0-4444-9D74-DFF33C39DA0F}" destId="{2B009C29-9F9F-4898-9A67-64BC3CA9EF87}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{13B9F06D-3404-478B-8780-A466F6C0FA01}" srcId="{59583D0D-A327-4B58-A389-210C62410B73}" destId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" srcOrd="0" destOrd="0" parTransId="{71054EBE-96A0-46DD-BAB3-D4064B152CCD}" sibTransId="{FB327D8A-23F0-4E7E-8CF6-B3708539A988}"/>
-    <dgm:cxn modelId="{4F102634-26EF-4BB4-854E-4CCC439AF1A0}" type="presOf" srcId="{CCE1CAF6-5F09-46D9-B294-3F39A5868EFD}" destId="{AE052854-0E0F-4187-888E-0D85F3275199}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{1E97D06D-E268-4AF1-B304-B1E59E1DAAE8}" type="presOf" srcId="{D47E14C7-D276-401A-8E15-F490BEC5902F}" destId="{82E1D7AD-9985-46F2-BFB2-D09C20BF9879}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{080BC751-2410-4CF1-853E-17CEC64997AF}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{2AD8FECC-100D-4C9E-8A64-DE1BE1D7BAED}" srcOrd="0" destOrd="0" parTransId="{5C919EF6-CDEF-4397-A296-239AEE07EF7C}" sibTransId="{708A23BE-741F-489D-AFEA-3F38F372132C}"/>
-    <dgm:cxn modelId="{F8922B88-9DF4-4847-8222-720A8B7C9529}" type="presOf" srcId="{0B331850-9836-4092-9A66-DFA59FFD27B6}" destId="{FB0DBCCC-9442-4866-B7D7-6A64C491CD84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C542E87A-9AC2-4C73-8471-A58113429E39}" type="presOf" srcId="{5DC53866-0599-4C48-B03C-5B3C75F0D4F0}" destId="{B8A95496-A02C-4A87-A119-CEDC962B5F64}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{1447ADC5-8A5A-499F-BC50-5581E9B6550B}" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{C4F38F9F-6F27-4440-A403-B96A88769701}" srcOrd="0" destOrd="0" parTransId="{DA8D3958-9EED-4560-9A31-6F5D07D81C68}" sibTransId="{1A114AAC-3F6B-4092-980F-875D262A046D}"/>
-    <dgm:cxn modelId="{4DD7B6ED-64AA-4CC0-9249-72B5F4D18316}" type="presOf" srcId="{3774AA08-19D6-47FB-83C7-0AD6CB078AB7}" destId="{56BC1FB2-B2EC-4340-9917-3FAA06520887}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{FE09EE38-BA5A-4083-AAC9-799233306EB7}" type="presOf" srcId="{9628DBEC-2BE9-46F9-AD6C-EB441F40214E}" destId="{11D12245-7B66-4BAF-8878-E68BC48CA1F2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{A8288290-16FC-4506-9192-353101BFEC6D}" type="presOf" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{D7EE1592-0F74-42C6-9575-FF62DEC8547F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{57E2C316-8B4D-4CFF-A27B-06FE5A90AA5F}" type="presOf" srcId="{0A27F08D-E931-4484-8B94-850866E64C23}" destId="{AD30FA7F-1B8B-4992-BD15-DA45FB206D41}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{12A3949F-B908-4C1D-B3A2-693365D9F26C}" type="presOf" srcId="{B5F31875-2A46-409B-BB4C-F8115208C657}" destId="{61185DE7-4631-40F4-9C46-427CDC62133A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{7E6439B0-B1C0-430B-9204-52A6D346F083}" type="presOf" srcId="{2F3A1133-3EF2-4759-B14F-AF155FE0020F}" destId="{2D518F6A-B69C-4B63-A502-C39FF79395FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{7E4C2882-0ADF-4A99-B7B2-7CE66DF2B004}" type="presOf" srcId="{F40968D4-D975-4188-8DDA-036453A1008D}" destId="{65DBF2B7-69C6-4569-8EE2-D36C44E4CED9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{04C8881F-6C5C-4C65-80CB-890CF13A4C85}" type="presOf" srcId="{CF2E67F8-1690-45A7-8878-EC140F0DBE39}" destId="{C0E323E5-6436-444B-BFF2-82A311713F24}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{8248894A-E530-46C8-B9BF-6EE5E02E5BB8}" type="presOf" srcId="{356839F7-09BC-4AAA-A247-E9E7C157B81D}" destId="{869F9FB7-617E-4924-9052-18EDE96D6447}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{EB556677-68C1-4502-9ADA-46DA6666F354}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{70BF5DB8-B58D-44B5-81B0-5A77811B6E1E}" srcOrd="5" destOrd="0" parTransId="{0351A5A2-D972-4800-99ED-A230BBE8F6A7}" sibTransId="{7131C4E3-D885-4B13-A828-633C111917E3}"/>
-    <dgm:cxn modelId="{37EFE171-6344-4B56-A342-916C5CE5AB1E}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{7A151371-2C1E-44D6-96F0-A457937040B8}" srcOrd="5" destOrd="0" parTransId="{C32B066A-E327-451B-9EA1-E72693ADFD71}" sibTransId="{40E95237-6445-4011-8041-E6749C2CB624}"/>
-    <dgm:cxn modelId="{75DC00EB-478C-4AF0-82CC-EE83F4464CDC}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{856B25BD-67D6-4759-97C2-83EF7954ADB6}" srcOrd="14" destOrd="0" parTransId="{73668456-7B98-4BC0-9215-F9A6C10EE6DC}" sibTransId="{2CC97A74-1D1D-432C-986F-582FB4F61162}"/>
-    <dgm:cxn modelId="{66431F84-DE53-4EED-BDCD-77653ADD9A7D}" type="presOf" srcId="{2AD8FECC-100D-4C9E-8A64-DE1BE1D7BAED}" destId="{BBCB5D66-E6F3-4AEB-A2E3-4B43695CB367}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{59D7139B-26D4-496D-9284-0C7CE2B765B6}" type="presOf" srcId="{0FC4D04A-BEB0-4630-93B5-1C08894AFF60}" destId="{512561F3-A39C-4577-A9F2-A39D61D7A19B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{5835E5A0-67BD-4725-BFB2-E29FBA5C222D}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{61EDA626-0474-40AC-8C13-6E6B6843E2DA}" srcOrd="6" destOrd="0" parTransId="{83DDDEF3-4777-4816-B0E6-5F0696E013D6}" sibTransId="{8FB9204E-65E8-4C92-909D-6E0321790492}"/>
-    <dgm:cxn modelId="{9DFF9E9C-EB11-4237-9BDD-C229C7906645}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{833B55A1-01FC-4FCE-80D0-E3203632AEC9}" srcOrd="0" destOrd="0" parTransId="{C8119D49-69F8-4BB3-9C6C-A747811CB5C6}" sibTransId="{4093610E-E868-4385-A4BA-CA59AD9996E0}"/>
-    <dgm:cxn modelId="{BAAFC0C1-78F5-4702-94C8-2F3AA1D28D46}" type="presOf" srcId="{3FE50685-761E-4A69-9EE1-3DA36B997AFA}" destId="{5BA9685C-0906-4E5F-AAD9-069246E4B1A6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C8020951-8ABA-4173-9F53-0F3D17B9A4F2}" type="presOf" srcId="{9F390CFD-A09D-4279-9341-732B5455C2BF}" destId="{DD885DB4-0360-4B79-99DF-FBD25D83CCA1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{32447295-4526-411E-9838-86E38AA5057F}" type="presOf" srcId="{51E658E9-C6E5-4AF1-B015-09D9A5945020}" destId="{1F9A5496-4D88-490B-A309-A461126DC5C6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{20CB9319-29F0-4A8A-BB6A-1CE57E9B065C}" type="presOf" srcId="{EB8626B7-F6D3-4631-BB5C-8AD10CABFB79}" destId="{FC14BDFF-2014-4FBD-8620-0120E57BB11E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{3562A6D1-2F12-45E5-AFAF-E8866F936483}" type="presOf" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{1A4978D9-614F-460E-8346-61943E68B541}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C5799622-2145-4139-83CB-E67E71A7E28A}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{9671203F-587E-40E2-855A-89971883591F}" srcOrd="10" destOrd="0" parTransId="{F748F1EB-D22F-4BBD-80CD-63CD207493D6}" sibTransId="{AED8DBA0-DE14-4386-B41B-1FA6A5F28B50}"/>
-    <dgm:cxn modelId="{BECCF778-9DFC-44B1-AC1E-D05234224B15}" type="presOf" srcId="{DD95B110-E387-4AB0-B2C5-4449C11881B4}" destId="{97DF217A-DDCB-443C-8F35-5DECCCF01ED1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{3858A062-4F80-4E14-A1E9-71230B23B3F3}" type="presOf" srcId="{A6D7812C-B035-4DCE-A19F-AA9A9E9D16BF}" destId="{9ED1C0E0-7C81-4B29-B31F-3EF97B39DAA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{82CA5EFA-B0F7-4B78-8B66-1A56519D41AC}" type="presOf" srcId="{9F390CFD-A09D-4279-9341-732B5455C2BF}" destId="{8AF0A2DE-F26C-49C5-B23D-1E0FE9E4D6BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{5FAB30C4-FB38-47F7-BE5B-8F73CFB8669E}" type="presOf" srcId="{A509A8EE-7CEC-42A1-B97E-8C41DFC16F2F}" destId="{76F62190-3E68-49C7-B378-2A97E0188288}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{95FDB1E8-148C-44BA-B17C-F7500675E6E0}" type="presOf" srcId="{F1733511-FE67-4833-929B-AA481DD8D8F2}" destId="{007CC8C1-40C7-498E-B776-2E6BAF236B51}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{AD2E9CE4-E964-447D-AC0D-B80EF52AE42E}" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" srcOrd="2" destOrd="0" parTransId="{C7BEB2FE-AED9-45FD-B81D-72BB156D19C5}" sibTransId="{B2A85A1A-033D-44A7-80A6-9C67423502A6}"/>
-    <dgm:cxn modelId="{BFAF87FA-2BA1-4E8F-A83B-DA31331731EB}" type="presOf" srcId="{5302DFCA-3DF7-45AB-92A0-E52C91D23D62}" destId="{9059711C-E678-47FA-9F86-B1F3288F365F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{BD158526-3195-4351-A379-D72ADE80407C}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{66511BC6-A4B2-417F-95C5-632DCAF5EFD8}" srcOrd="1" destOrd="0" parTransId="{1D68834C-C63C-44E8-B890-CC6C9E5EFC9F}" sibTransId="{2FF8B175-019F-46D2-91BA-AE25625E4CD9}"/>
-    <dgm:cxn modelId="{3DF0177C-66C5-4D22-BA3D-7A7268D07B06}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{4C5B5FA4-1003-4AA8-9E61-1CD19CDFFD53}" srcOrd="7" destOrd="0" parTransId="{01C7EDE9-2CFC-412F-9066-C25EA6CE353B}" sibTransId="{75586CFF-8715-407E-A523-7FC7371C1B23}"/>
-    <dgm:cxn modelId="{99BAD5AC-85A5-45C5-9B7E-FA9BF651FDAE}" type="presOf" srcId="{6FF10B12-FE55-4D61-ABB2-9A37D09F8764}" destId="{0D90176F-842A-4EC0-8044-1761284E6BBB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{912CE592-3AEA-4181-A5BD-7DB57BCF6C19}" type="presOf" srcId="{9E51A304-FC5F-4187-B6FC-DB20CAC0A857}" destId="{ADA2D9CA-7872-477B-B5F1-7CFE74FF2586}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{004E3074-F404-4C3B-BC11-4449F17579B9}" type="presOf" srcId="{73EC8508-4693-4594-B7D0-095AC55E0CB1}" destId="{FFAF363B-9EB0-4336-8E2F-D2C40474D823}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{F2E3A646-DF1B-49BA-B4BF-8135E421ADF8}" type="presOf" srcId="{A54C1535-6884-4D80-B0BD-B27A1E7CA4F6}" destId="{BA9D324D-5CE0-4482-9EA3-E69250758049}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{70D60995-5A6B-46F7-8E7C-554680AFA349}" type="presOf" srcId="{EBE0A63E-8068-4C04-83E3-44D88F3017B6}" destId="{84E2BE14-A217-4E4E-88CB-21402AA660B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{557341A6-9149-42E9-BA19-1D133294C4A7}" type="presOf" srcId="{66511BC6-A4B2-417F-95C5-632DCAF5EFD8}" destId="{33A04436-C46E-4890-8ECC-0436E1A70BD7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{AFBD9500-79E8-4D7F-9A01-9A4AB7F8DA21}" type="presOf" srcId="{B5F31875-2A46-409B-BB4C-F8115208C657}" destId="{853C189B-A55E-4DEF-A99A-4C5058A07E78}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{F31DFCBD-CBFD-4E16-986D-64A161D3A132}" type="presOf" srcId="{7C1A56A9-FA74-45DA-B3C6-609DEA9FE06F}" destId="{F0CB3CB4-0216-4720-BF5B-8803A3F8115B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{6FCFFFC2-A735-430C-9468-291EB8776594}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{4E8A4E51-3572-4F58-AF9A-7B078A6F0327}" srcOrd="14" destOrd="0" parTransId="{51E658E9-C6E5-4AF1-B015-09D9A5945020}" sibTransId="{B3816720-0021-49A0-8A4E-4F49312A9D17}"/>
-    <dgm:cxn modelId="{B7852551-A323-420D-8354-534FF1928ACB}" type="presOf" srcId="{DD95B110-E387-4AB0-B2C5-4449C11881B4}" destId="{0A0A35BC-105D-44CD-B134-C667C9379B2C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{D5DCD1A9-2B08-4AF2-8891-C4BD8454F80E}" type="presOf" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{F6642BF1-99D1-454C-A3FC-C77F38E12C0A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{CF5EBA6B-FD73-4E25-9928-6D40472FB987}" type="presOf" srcId="{8D354F19-FEDF-4F0E-B3B6-944EC2E0E59C}" destId="{D5D16F42-672C-449C-B5D3-413CDA7B6840}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{CFF2F952-2C7B-4E4E-90E1-08DE6130DB06}" srcId="{3774AA08-19D6-47FB-83C7-0AD6CB078AB7}" destId="{2F3A1133-3EF2-4759-B14F-AF155FE0020F}" srcOrd="2" destOrd="0" parTransId="{6469D686-D6B0-48DD-9048-A4A87ABC6C95}" sibTransId="{5415319F-9835-4A25-B401-8812E9A13426}"/>
-    <dgm:cxn modelId="{2458852D-6164-4ED9-82B0-22078455C03A}" type="presOf" srcId="{305D1325-EE35-4655-9F7E-36AC24B358A2}" destId="{74A0EA5E-4934-40CA-8842-C8FDDCAA752D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{0E39DCF1-E75A-4CC0-946C-CDD016E5BCA5}" type="presOf" srcId="{8C874F93-F615-47EF-8596-7B82B61279DC}" destId="{8CBF3BD7-09D7-41D6-8432-F31822B43513}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{734B29F5-948A-4292-996F-350A8B9F601C}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{147DA98C-812C-4A00-86C9-81284A2D5AA7}" srcOrd="13" destOrd="0" parTransId="{D47E14C7-D276-401A-8E15-F490BEC5902F}" sibTransId="{A853E67B-A59F-4EC2-AF1B-ADBE3AA4DECA}"/>
-    <dgm:cxn modelId="{2FBF868B-872E-4A1F-BA86-9A8C7BE8BE71}" type="presOf" srcId="{76852895-DE6A-4965-AEFB-41828806B6AA}" destId="{AE0EC0A8-0998-4D9C-B95A-2C986F405B8F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{1B7F9260-04B7-4C18-B8B9-BC151094B63D}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{F7BFEA5A-4627-4B8C-8314-08D2B1588E79}" srcOrd="10" destOrd="0" parTransId="{614701A8-875B-434A-B671-83B309E977FC}" sibTransId="{44C67E1D-F21C-4E0F-A507-5C777361A508}"/>
-    <dgm:cxn modelId="{024EC33A-9C06-45A6-92A4-8B601354E1B4}" type="presOf" srcId="{17C36C6D-74D9-4A79-A0BB-52BA898F12A6}" destId="{A126E577-351D-43F2-8561-148D5F9417E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{117220FF-18F6-4572-A0B8-A3E784EAED53}" type="presOf" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{6973829F-0F50-4091-B331-26B70335AF92}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{D6419358-08E7-4178-AC1A-120CF8C50AE9}" type="presOf" srcId="{7A151371-2C1E-44D6-96F0-A457937040B8}" destId="{4129F876-305E-4EF2-A4BB-62CEDC0DE270}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{EED2C1AC-97E2-474F-86E7-1C122B59950E}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{8E144EDD-B68D-4430-BF2C-8C5C70461D7A}" srcOrd="5" destOrd="0" parTransId="{5FDA32BF-C7A3-4A2A-9D36-C135B53FBEA7}" sibTransId="{368FE1CC-5EAC-4BDC-BF67-36593F3F3002}"/>
-    <dgm:cxn modelId="{8719A75B-7500-4283-9734-21992E25EC56}" type="presOf" srcId="{0A024630-A435-49CF-9A6D-F88C0CBB515C}" destId="{2342CE06-CE82-4E7D-A838-8BBEE6AFB772}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{5AE2846C-9DAA-4412-B577-DB9F11316D3F}" type="presOf" srcId="{D901C1FA-8DBD-4CBE-AA5A-6B00988F1344}" destId="{C04472FD-289A-4361-95FF-FBD5D2C21F51}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{291505C4-55AE-4A5B-BAAE-FE60BD0998F5}" type="presOf" srcId="{5F4359E2-7A99-4EC4-9586-8CD1DCAAB430}" destId="{82F7FBFC-E3E3-43B4-BFF9-A585C9F60841}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{5CBB4F78-B395-4583-970E-2A59FFFDAF21}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{76852895-DE6A-4965-AEFB-41828806B6AA}" srcOrd="8" destOrd="0" parTransId="{2C182201-9B04-47F8-8DD4-BB4E1F463B10}" sibTransId="{5412F20E-1D54-4220-8C5A-109D0356D311}"/>
-    <dgm:cxn modelId="{8AC5CDDC-DAF7-4B99-BA28-4194E4E98209}" type="presOf" srcId="{F748F1EB-D22F-4BBD-80CD-63CD207493D6}" destId="{AE1584E2-E1B1-41E9-B27F-6072E11934BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{3724A506-1BC9-44E6-8345-C0425134BB37}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{304A416E-2327-4FC0-B31B-B9DA3D1369CB}" srcOrd="7" destOrd="0" parTransId="{78F62DB2-4BE0-4444-9D74-DFF33C39DA0F}" sibTransId="{DE666224-9A4C-4967-9EFA-329A083DA2C7}"/>
-    <dgm:cxn modelId="{ABE5AA2F-2CD7-4E5E-949C-C1044CDEF376}" type="presOf" srcId="{9926BE73-00F8-437B-AF4A-E11C4736FDF1}" destId="{E6C9C401-8496-49EA-86E3-8066F7E62086}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{4B9E85C2-6E73-4201-AC1D-9C5B15B21D8F}" type="presOf" srcId="{66511BC6-A4B2-417F-95C5-632DCAF5EFD8}" destId="{60B64B88-EFBA-47F8-B93D-B161004F4B07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{60FDA0BD-9D27-42EA-9188-A236A88C8B23}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{5302DFCA-3DF7-45AB-92A0-E52C91D23D62}" srcOrd="12" destOrd="0" parTransId="{4C912BE9-72D7-44FE-A425-AA7A313474DC}" sibTransId="{BA2485A0-6881-47C1-8331-0D0C0530048F}"/>
-    <dgm:cxn modelId="{192C9235-8EED-4348-ADDC-580A82D09DE7}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{54ED291A-66CE-4C85-AC0E-F52FC1CCEC73}" srcOrd="3" destOrd="0" parTransId="{D998BC7D-3E73-4072-9894-E11ACE7D8F3E}" sibTransId="{A1D3DEAD-2C70-4455-91D7-EE624E532D25}"/>
-    <dgm:cxn modelId="{41006EFD-2287-4856-84CB-6AB913B9F97D}" type="presOf" srcId="{54ED291A-66CE-4C85-AC0E-F52FC1CCEC73}" destId="{090017CE-790D-4A33-9B85-ED4CF1AD85F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{5C07020E-08CC-4BE8-A1A2-2E693DC87879}" type="presOf" srcId="{E5008AA6-3202-468A-940A-B4CA9F91832E}" destId="{F5AFC97D-9474-46A0-906E-907CCFED5015}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{1FDF5E7F-0B29-497C-A864-9DC66B6BE8AA}" type="presOf" srcId="{304A416E-2327-4FC0-B31B-B9DA3D1369CB}" destId="{75107F7F-77CA-42BD-B563-01ECDDBBBE25}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{0FB9EAAD-7933-4A31-8014-EEE9F71D4BD3}" type="presOf" srcId="{356839F7-09BC-4AAA-A247-E9E7C157B81D}" destId="{8F9C9183-C52E-49DF-8CFE-FE43AFBFF463}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{2ED8C77A-49AF-4D58-8400-4A4316D03012}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{DD95B110-E387-4AB0-B2C5-4449C11881B4}" srcOrd="2" destOrd="0" parTransId="{0FC4D04A-BEB0-4630-93B5-1C08894AFF60}" sibTransId="{C2B16B46-2D40-4D6B-A483-622DC815FD49}"/>
-    <dgm:cxn modelId="{F38478C3-99A1-4F14-9852-B9B26B3F1336}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{EB8626B7-F6D3-4631-BB5C-8AD10CABFB79}" srcOrd="2" destOrd="0" parTransId="{A6D7812C-B035-4DCE-A19F-AA9A9E9D16BF}" sibTransId="{9AECDF1E-98D0-4FC6-9DE8-CF1A5937CCAC}"/>
-    <dgm:cxn modelId="{96916546-41BD-4025-B529-5FCA897607C3}" type="presOf" srcId="{9ECB0B19-2DAC-42B9-B544-EF2128DF8873}" destId="{DF080407-3181-4ED8-A41D-3D9710D3F348}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{04E077FB-3382-42AE-9862-4B89FA200141}" type="presOf" srcId="{E5008AA6-3202-468A-940A-B4CA9F91832E}" destId="{D339E64A-EB9D-4288-A2E4-DDA0472BC15A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{D4EBACD3-5A9F-4631-82CE-42534E9B731B}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{5853F8BA-1286-4BED-A551-8B4ECBA09EEE}" srcOrd="3" destOrd="0" parTransId="{BA5D840D-F4A9-4B2E-818D-F5787141FD81}" sibTransId="{7A3DE001-E3F1-42F7-8E8A-7EA5D3D6FDB4}"/>
-    <dgm:cxn modelId="{71CCBE1B-3819-4DDB-9B5D-16F1D3C39D9F}" type="presOf" srcId="{9926BE73-00F8-437B-AF4A-E11C4736FDF1}" destId="{42FD621E-B3C3-4C5A-A416-8096E975AC1E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C4A08C1E-F270-48DE-AA1C-A860E37279AD}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{757E8F83-0C95-4552-B791-301ADA055666}" srcOrd="0" destOrd="0" parTransId="{212B6D1C-E5AD-429C-B285-04BAB5999AB8}" sibTransId="{2999CA21-D596-49A0-8AC5-7008D1E4AA89}"/>
-    <dgm:cxn modelId="{F33FDBB8-5FB6-4B68-8877-70638844B6AC}" type="presOf" srcId="{0351A5A2-D972-4800-99ED-A230BBE8F6A7}" destId="{38D3FC57-896A-4F37-BCEA-7B7A57E915C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{ED5F63B3-326E-4D75-8248-E43C117FF1B3}" type="presOf" srcId="{C4F38F9F-6F27-4440-A403-B96A88769701}" destId="{DFCF5355-0B4C-4E10-B26A-0594C02307EC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{6C3EB3F5-2B30-42F2-ADD8-1B785033D02D}" type="presOf" srcId="{163043EE-AEEB-46D5-A7D1-C03FADB7A8D6}" destId="{5E3C1FDD-C091-4692-9254-71CEB7263643}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C30383C6-7CCE-4D47-9F52-806A1746BA38}" type="presOf" srcId="{31BC65FF-7ADE-4CE7-8C9A-1CBB20555114}" destId="{AA6F8D47-CB9F-4600-9C67-BC6D360752E6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{B0B82DD6-C503-47EB-8310-C41D873AA6CC}" type="presOf" srcId="{C4F38F9F-6F27-4440-A403-B96A88769701}" destId="{AE17A2B0-20F9-476C-91D1-BC66885CCD28}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{7D69482F-B4D9-4961-8CA3-609382EA2EED}" type="presOf" srcId="{4C912BE9-72D7-44FE-A425-AA7A313474DC}" destId="{F8BCA2CD-5593-485E-AA70-2687F1512AF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{B11D4373-DD0F-4E60-8CCC-12AEA4D1D927}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{6FF10B12-FE55-4D61-ABB2-9A37D09F8764}" srcOrd="6" destOrd="0" parTransId="{F1733511-FE67-4833-929B-AA481DD8D8F2}" sibTransId="{45E29EA4-77B0-4AF2-8BB3-792D34C90EE4}"/>
-    <dgm:cxn modelId="{1CB3CCF7-31AD-4889-A44A-BBB143407EA1}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{EBE0A63E-8068-4C04-83E3-44D88F3017B6}" srcOrd="13" destOrd="0" parTransId="{2167D066-7FDA-46FF-9411-42E360A0489E}" sibTransId="{56BB5C97-86C7-43CF-A0FE-4D5E0F87B00D}"/>
-    <dgm:cxn modelId="{9DBC8AAC-005D-44BF-8ACD-0484DC9724C7}" type="presOf" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{E3743CCE-B433-4A0A-BDD4-FA1AAC75F4AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{811E6524-E58C-45B4-8C27-732085A0B007}" type="presOf" srcId="{453B66A3-5C75-45D4-B751-B171FE5D90B6}" destId="{3D009D50-9CFE-4667-9A29-15CD043289A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{D9F97368-42F6-44E4-936A-CA6EF98067C7}" type="presOf" srcId="{83DDDEF3-4777-4816-B0E6-5F0696E013D6}" destId="{623FF216-1218-4793-94C6-D198C9E65FD4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{529B7E32-4431-4A55-99A7-3EF3F9B1F2B9}" type="presOf" srcId="{2B077780-3556-4562-9415-2D9CA5C9C56E}" destId="{22B3718B-92B6-477B-872D-C9B599392348}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{380FEE00-278C-479E-B07E-C3E4D857447E}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{5DC53866-0599-4C48-B03C-5B3C75F0D4F0}" srcOrd="4" destOrd="0" parTransId="{30296546-C4D8-41A8-9F47-E94D7D60757F}" sibTransId="{64AD3C73-6B58-41D0-9A37-410BD88AD803}"/>
-    <dgm:cxn modelId="{AB63EAEE-67DE-4C34-B508-AA6F22C0FB58}" type="presOf" srcId="{4CB44836-C2CF-4AA8-BA34-A77659A77488}" destId="{B795E79C-8009-490E-87CB-484277F06ED6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{97E5BAAE-5211-4494-A006-177528883083}" type="presOf" srcId="{76852895-DE6A-4965-AEFB-41828806B6AA}" destId="{AE74E30F-81F0-4C0E-B821-3CA473732733}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{4A0A4588-6B0D-42C1-91DF-83967605F915}" type="presOf" srcId="{19B84401-C10A-4B8C-9E77-9358F85F4E30}" destId="{8BB0115E-8473-4127-91F6-BA6373CEC70D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C89D603A-9863-4804-AD55-5D03EE2A5B5F}" srcId="{3774AA08-19D6-47FB-83C7-0AD6CB078AB7}" destId="{9926BE73-00F8-437B-AF4A-E11C4736FDF1}" srcOrd="0" destOrd="0" parTransId="{5F4359E2-7A99-4EC4-9586-8CD1DCAAB430}" sibTransId="{9470DEC1-D381-4F66-ABEE-0BA410664AA9}"/>
-    <dgm:cxn modelId="{936D5AEF-DB98-45C1-AFE3-EA446157D4D3}" type="presOf" srcId="{1D68834C-C63C-44E8-B890-CC6C9E5EFC9F}" destId="{1CC9BA03-3E39-43C0-B537-1FF6DF8A3583}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{873B579B-B8A6-4708-8665-18AB26F35095}" type="presOf" srcId="{E33AB835-336A-4FDC-93EA-D3EA1D6F37BE}" destId="{82704B38-A36E-419A-882A-EF7F92AC7E7F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{A1D11BEA-9194-455D-8F75-2134A3DED037}" type="presOf" srcId="{4C5B5FA4-1003-4AA8-9E61-1CD19CDFFD53}" destId="{68714630-B553-4A5D-A2E5-2E39C9C2A161}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{7E652155-3A29-4E98-814D-EEF4D8CC4919}" type="presOf" srcId="{A0873F6A-3D8F-468D-AA59-DB02B1916167}" destId="{020947E7-81A6-4264-AAFF-B33F9373086F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{8A9DDE63-D8D8-406F-ABF2-6D6643594830}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{F40968D4-D975-4188-8DDA-036453A1008D}" srcOrd="2" destOrd="0" parTransId="{B28DB0A8-F257-470E-85C2-65154D1DFB98}" sibTransId="{67B48DDF-F5C1-476B-A364-B8247B4AAE99}"/>
-    <dgm:cxn modelId="{204F88BE-584E-4FF9-80A2-2D7CB83E6146}" type="presOf" srcId="{D8C4FFFE-ABAF-4685-9313-0C1955821D3A}" destId="{BCFE97D6-00EC-43A0-84EE-202732FCCAA1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C09CA496-20C8-4328-AE7F-72D3F0F14DBA}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{0A27F08D-E931-4484-8B94-850866E64C23}" srcOrd="8" destOrd="0" parTransId="{CF2E67F8-1690-45A7-8878-EC140F0DBE39}" sibTransId="{0D5E1BAC-0365-40E8-ABED-81B02D7021EB}"/>
-    <dgm:cxn modelId="{D9E5FE69-739C-4464-B315-166326D1F78F}" type="presOf" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{4F3067CC-6528-416B-9990-044C6BCDD556}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{A0B4A544-94BC-450E-946D-482B8B817D3D}" type="presOf" srcId="{2B077780-3556-4562-9415-2D9CA5C9C56E}" destId="{F8AD51CD-AE74-4468-A4D5-7594A0CA1248}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{2C223D50-5634-4DFA-9561-8B3679B1CC8E}" type="presOf" srcId="{6469D686-D6B0-48DD-9048-A4A87ABC6C95}" destId="{AB9971FE-492B-4B2A-8772-62D579309218}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{E61C2A81-20A6-4A80-A052-535F14619EBA}" type="presOf" srcId="{C8119D49-69F8-4BB3-9C6C-A747811CB5C6}" destId="{85405C32-1DD4-4C40-890B-4A732AFD31A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{DE972C58-0B1E-4A1C-BDC6-8EFDDCA2EC21}" type="presOf" srcId="{833B55A1-01FC-4FCE-80D0-E3203632AEC9}" destId="{219024EF-6C06-4E93-9935-6179FE2D8075}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{A85E3E7B-52FA-41CB-8170-06219CDBF656}" type="presOf" srcId="{BA5D840D-F4A9-4B2E-818D-F5787141FD81}" destId="{02C727B3-37B1-472D-A735-1B682B5B7D10}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{D517B99B-3B77-47E6-BFA6-180890CACB66}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{7C1A56A9-FA74-45DA-B3C6-609DEA9FE06F}" srcOrd="3" destOrd="0" parTransId="{9E0B8A28-E2F4-4472-9A5E-566B26350FA7}" sibTransId="{37E7B878-1B70-4E87-BD3E-B45FE1C19D97}"/>
-    <dgm:cxn modelId="{935C6428-2363-4290-8043-8E7A57DF0A4D}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{163043EE-AEEB-46D5-A7D1-C03FADB7A8D6}" srcOrd="4" destOrd="0" parTransId="{19B84401-C10A-4B8C-9E77-9358F85F4E30}" sibTransId="{8AE29FDE-ABD4-445E-9AA7-BC8EC9F7701A}"/>
-    <dgm:cxn modelId="{AE7FBA26-43A2-4A3B-90F7-16C83C2CDB66}" type="presOf" srcId="{51132D38-F616-4313-943F-12DA72DEDFB4}" destId="{4DE7357D-92C7-4024-AC35-A03A6005101F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{FF2BEBEF-F515-4C5C-A771-ABFBAB3535D0}" type="presOf" srcId="{7A151371-2C1E-44D6-96F0-A457937040B8}" destId="{1718EADA-2EE9-42A6-9B91-3A4E21470202}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{AD8729D5-7621-4C3E-A9A0-18B8C21AD617}" type="presOf" srcId="{59583D0D-A327-4B58-A389-210C62410B73}" destId="{8FCACA15-864B-4B6B-9645-436C803FF44B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{216F836E-02CE-4981-90D0-8CE24AA1DE0B}" type="presOf" srcId="{2AD8FECC-100D-4C9E-8A64-DE1BE1D7BAED}" destId="{CC2BE142-66BF-4315-99B9-A4C78EF7034F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{37404D5F-0386-452C-8190-3240E46F1FE7}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{BE171F4D-DD5C-413C-B713-29B371BE1E9C}" srcOrd="9" destOrd="0" parTransId="{D80BBB47-C499-473A-88F3-A4A8C1E7D315}" sibTransId="{85E0A6D7-EDA7-4ABA-9357-0D41AAABE1C6}"/>
-    <dgm:cxn modelId="{0395B8B1-4559-4D42-A420-01A736EB366C}" srcId="{3774AA08-19D6-47FB-83C7-0AD6CB078AB7}" destId="{7D1CCA3D-C449-41BB-B869-9C58741A6E5D}" srcOrd="1" destOrd="0" parTransId="{17C36C6D-74D9-4A79-A0BB-52BA898F12A6}" sibTransId="{40546EA1-1DAB-4405-9B13-1AE86AEB170F}"/>
-    <dgm:cxn modelId="{4F102AF8-E0C6-44AD-8A72-4DB112560CCA}" type="presOf" srcId="{8E144EDD-B68D-4430-BF2C-8C5C70461D7A}" destId="{F34E9B8F-FC8F-45DF-A59B-19E558AE7D50}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{FEFAC42B-BC2E-4541-B8B3-E26A625F45FB}" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{73EC8508-4693-4594-B7D0-095AC55E0CB1}" srcOrd="3" destOrd="0" parTransId="{9ECB0B19-2DAC-42B9-B544-EF2128DF8873}" sibTransId="{E6C5127A-9349-4A79-BD3B-ED0F73057F10}"/>
-    <dgm:cxn modelId="{240F43D4-0A77-4ED9-9B65-8EFC3E74C53B}" type="presOf" srcId="{4E8A4E51-3572-4F58-AF9A-7B078A6F0327}" destId="{6452FC7A-22F4-48D4-9B87-74227FD72816}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{D566B693-63FD-473E-85C1-1822CFFEE83C}" type="presOf" srcId="{0638E36C-ED03-4C42-8224-405F5D438B90}" destId="{E9079EB3-F0A8-465F-AC70-A76EBC9767B4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{537B3FF9-E8C7-4F1E-9F1B-834BBF5BA72F}" type="presOf" srcId="{2CAA8C5F-0773-49B4-A482-E1506FC3FF39}" destId="{B2B35F45-6FAA-4511-82CF-4B61D9D0936C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C54A5B82-B144-4763-9B43-4893381C3A03}" type="presOf" srcId="{A167FCB0-CC9E-4A9A-B628-A90A750F4870}" destId="{0A9AF60C-A7CD-4D1A-A09A-86296EC6A2E0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{F2B1D45F-5108-471B-AE56-B768B8A059D7}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{9E51A304-FC5F-4187-B6FC-DB20CAC0A857}" srcOrd="15" destOrd="0" parTransId="{453B66A3-5C75-45D4-B751-B171FE5D90B6}" sibTransId="{DCC09C04-7833-4B43-B4B7-527D8D12E2B9}"/>
-    <dgm:cxn modelId="{EAA1B642-8E12-4DB1-8FCF-122B08F9689D}" type="presOf" srcId="{3774AA08-19D6-47FB-83C7-0AD6CB078AB7}" destId="{D941231C-5681-4CAC-BD79-1C31CA98ACFB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{B8AF89F3-1FCB-441D-89CC-3980ACADD650}" type="presOf" srcId="{304A416E-2327-4FC0-B31B-B9DA3D1369CB}" destId="{DEC215DD-4B0A-4AFF-9101-C6D4E053239F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{37B11933-9589-4B39-BEDE-444A03C53B51}" type="presOf" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{13CC17F0-CC6B-4D0E-BA51-687AAEFC8B1C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{BC8B755C-8A1F-46D8-9FCE-AF43C9E0556B}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{8D354F19-FEDF-4F0E-B3B6-944EC2E0E59C}" srcOrd="9" destOrd="0" parTransId="{5B90E0DE-D461-46C7-9EEE-AC33458EC43A}" sibTransId="{DA6E414A-2296-417F-A565-F73F01DDBBEE}"/>
-    <dgm:cxn modelId="{B4A350A3-EFC6-4735-BAB3-D53CAFBD4FDC}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{31BC65FF-7ADE-4CE7-8C9A-1CBB20555114}" srcOrd="6" destOrd="0" parTransId="{E33AB835-336A-4FDC-93EA-D3EA1D6F37BE}" sibTransId="{59853FFA-616A-479D-B79C-106FB49FB95A}"/>
-    <dgm:cxn modelId="{C25C3A2C-419E-4E96-8F73-18AEBC201CA7}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{B5F31875-2A46-409B-BB4C-F8115208C657}" srcOrd="12" destOrd="0" parTransId="{0555BD20-44D1-4D87-B750-36B8F07EDDB9}" sibTransId="{0C8B291C-FCD7-4AE4-AF98-8E0604D78209}"/>
-    <dgm:cxn modelId="{8EC011D6-EB5D-48FA-923F-BC44BD03D177}" type="presOf" srcId="{54ED291A-66CE-4C85-AC0E-F52FC1CCEC73}" destId="{CBE7C4AD-28F2-42CF-8E04-9069CB93CB42}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{71DECAFD-2946-4060-A998-5C0369D3EA1E}" type="presOf" srcId="{23DDFFB8-474A-462B-ADF9-61045285BD04}" destId="{DE614F21-2570-4BC2-96A4-5B3B99B1F42B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{127713C4-0E2C-4A25-809F-4BA2CE15C2EF}" type="presOf" srcId="{5853F8BA-1286-4BED-A551-8B4ECBA09EEE}" destId="{44B6EB10-A5AA-49D7-BEA0-09E6F9B5F675}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{512D9033-F154-4F19-9550-B4AA15D22E7F}" type="presOf" srcId="{30296546-C4D8-41A8-9F47-E94D7D60757F}" destId="{3DACB5FF-0445-4EEC-800E-A64D382111A2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{7BB9FF7B-6A4A-435F-97AA-A6C4B2F85FB5}" type="presOf" srcId="{3FE50685-761E-4A69-9EE1-3DA36B997AFA}" destId="{8E50CA28-C007-4D0A-A7B3-1255E986398C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{A902FB58-DA3B-4C00-BD8A-FF69D9569927}" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{0608D898-B163-489D-B9C7-B14E4575A312}" srcOrd="1" destOrd="0" parTransId="{A3E7B80F-D82E-4546-9ED6-C7B018FC755A}" sibTransId="{E51ECB12-2AAD-442E-B104-6122DC8AF7C1}"/>
-    <dgm:cxn modelId="{13891523-B160-4980-9833-BF1767776440}" srcId="{4012DFDB-498A-4516-B66A-B3589F56F3B3}" destId="{3774AA08-19D6-47FB-83C7-0AD6CB078AB7}" srcOrd="5" destOrd="0" parTransId="{A54C1535-6884-4D80-B0BD-B27A1E7CA4F6}" sibTransId="{C47B8AF3-0008-4779-932B-27381D56A257}"/>
-    <dgm:cxn modelId="{CD49223E-1486-41E2-9660-2201A2F9BA79}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{9F390CFD-A09D-4279-9341-732B5455C2BF}" srcOrd="11" destOrd="0" parTransId="{A167FCB0-CC9E-4A9A-B628-A90A750F4870}" sibTransId="{ABA8B975-5CF2-4438-8CC3-0890438AFCC1}"/>
-    <dgm:cxn modelId="{426526BB-7D09-4230-AA70-2ECCE3E2D6E4}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{D901C1FA-8DBD-4CBE-AA5A-6B00988F1344}" srcOrd="8" destOrd="0" parTransId="{33DDB360-EBEA-4B9B-855D-F4EA600AD847}" sibTransId="{CCDE16F8-202E-4BC8-879F-3E0D5A83C77B}"/>
-    <dgm:cxn modelId="{38D4EBA5-15D3-4027-9449-037B2DD63F82}" type="presOf" srcId="{9671203F-587E-40E2-855A-89971883591F}" destId="{6E4B87EC-45DD-4C07-8019-F3322766BFB9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{D8CD40D1-716D-4424-8F80-E004C5A9FDBF}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{9628DBEC-2BE9-46F9-AD6C-EB441F40214E}" srcOrd="4" destOrd="0" parTransId="{A509A8EE-7CEC-42A1-B97E-8C41DFC16F2F}" sibTransId="{D43E4BD6-91EE-461F-B674-F170C4E79ACF}"/>
-    <dgm:cxn modelId="{B042C712-E928-4EF7-A3B0-96F797C9B701}" type="presOf" srcId="{8C874F93-F615-47EF-8596-7B82B61279DC}" destId="{A0886CB0-3F60-41F0-A82F-05C417E12B26}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{117FB7CA-412B-44DB-91A7-AF176ED8902F}" type="presOf" srcId="{5C919EF6-CDEF-4397-A296-239AEE07EF7C}" destId="{C42A585F-E081-4771-B087-5DC63E3EF868}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{D59EB46A-FD98-44FB-997F-4B8C29554A9C}" type="presOf" srcId="{C32B066A-E327-451B-9EA1-E72693ADFD71}" destId="{41AB5908-DE8D-4F06-B8E5-730289B4D80E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C66E3A88-28B2-47EA-9503-847773884A0C}" type="presOf" srcId="{EB8626B7-F6D3-4631-BB5C-8AD10CABFB79}" destId="{6FF68B83-5073-4972-82DE-1932E2057609}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{BF9D1CE7-A8FC-4047-983B-9D2C4D64906A}" srcId="{0608D898-B163-489D-B9C7-B14E4575A312}" destId="{3FE50685-761E-4A69-9EE1-3DA36B997AFA}" srcOrd="1" destOrd="0" parTransId="{0A024630-A435-49CF-9A6D-F88C0CBB515C}" sibTransId="{28FD3DEB-DD60-443F-B83A-18557DFED8AF}"/>
-    <dgm:cxn modelId="{C213D502-B7AE-4805-8408-4FCF2C536138}" srcId="{3774AA08-19D6-47FB-83C7-0AD6CB078AB7}" destId="{8C874F93-F615-47EF-8596-7B82B61279DC}" srcOrd="3" destOrd="0" parTransId="{2CAA8C5F-0773-49B4-A482-E1506FC3FF39}" sibTransId="{903ADE2C-C3BE-4CC7-A6B1-1A248E96AC49}"/>
-    <dgm:cxn modelId="{9A4FFF90-C137-400B-BF8D-4C7FA268647F}" type="presOf" srcId="{147DA98C-812C-4A00-86C9-81284A2D5AA7}" destId="{1CC0FC67-0BD0-4663-AD74-BADD39365C46}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C4358E67-9F7A-4327-9947-0C78643394CD}" type="presOf" srcId="{C7BEB2FE-AED9-45FD-B81D-72BB156D19C5}" destId="{28F9C158-4CB9-4B81-8B8A-868BB701D7A9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{7CA64AC1-3E11-435D-8CFF-F474CDEEC589}" type="presOf" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{F43B1165-2631-49AF-9299-476706367576}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{2A183E98-CA8E-4E3D-B513-D6309446B93F}" type="presOf" srcId="{67EA6C06-40D4-4BA7-8B04-01A3168DAF4B}" destId="{AC85EF5E-A5DE-4E2B-8CE1-4A8FBE032FF2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{3A3FD97B-010D-4996-99EB-46105B2F7F25}" type="presOf" srcId="{D901C1FA-8DBD-4CBE-AA5A-6B00988F1344}" destId="{D48FABAD-3B55-4EF9-8D57-84C9A006DD38}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C80D9BDE-0EFF-4FC4-AA7D-8943574F0006}" type="presOf" srcId="{757E8F83-0C95-4552-B791-301ADA055666}" destId="{92065039-7496-4E4B-8FD4-50498772DD9F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{25E1E7F7-5C9C-41B5-A5E2-B57C20BD7B47}" type="presOf" srcId="{70BF5DB8-B58D-44B5-81B0-5A77811B6E1E}" destId="{1D733529-8D5A-4A2D-88CE-857C4869C4E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{E990B17C-065A-4959-B97F-B058DE7E9475}" type="presOf" srcId="{33DDB360-EBEA-4B9B-855D-F4EA600AD847}" destId="{2FBD969B-D61E-4394-A8DB-9A7B364534BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{22F2C118-8D33-418B-91B9-6BA12D945713}" type="presOf" srcId="{5853F8BA-1286-4BED-A551-8B4ECBA09EEE}" destId="{51754374-21B0-4B5B-9612-69433C76BA4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{9BE2A242-2202-449A-AF80-BDF1569167F8}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{67EA6C06-40D4-4BA7-8B04-01A3168DAF4B}" srcOrd="7" destOrd="0" parTransId="{CCE1CAF6-5F09-46D9-B294-3F39A5868EFD}" sibTransId="{9015776E-3622-471D-936F-1E95784EA3AB}"/>
-    <dgm:cxn modelId="{A6365522-A66F-4B0E-BA89-88989C08F001}" type="presOf" srcId="{212B6D1C-E5AD-429C-B285-04BAB5999AB8}" destId="{F3FB1874-88CB-4075-A1B3-4A67CF4A63BB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{B181133A-2AC4-4B30-82E5-FFA774669B33}" type="presOf" srcId="{70BF5DB8-B58D-44B5-81B0-5A77811B6E1E}" destId="{EF7294EB-1CA4-4F01-8B40-63288D9E7AAA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{0E566C81-8157-42A8-9CB0-B794645A0AAF}" srcId="{6709FAA7-8B3A-415A-80CC-6A93D0F44A71}" destId="{951FEFBE-1B26-4693-B3AD-8444D624CEF8}" srcOrd="11" destOrd="0" parTransId="{0638E36C-ED03-4C42-8224-405F5D438B90}" sibTransId="{BB9D14AF-99BE-465A-A307-8803C71AE4A8}"/>
-    <dgm:cxn modelId="{AE9AF89B-3276-4188-9CD0-A539ED631034}" type="presOf" srcId="{3DF4EF37-E315-41CC-AAFC-EA49AAB11DED}" destId="{C363DC31-699E-4525-A727-C0A29E712485}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{142CB9D8-1A14-45BF-A234-2ACF16B6140F}" type="presOf" srcId="{F7BFEA5A-4627-4B8C-8314-08D2B1588E79}" destId="{79BAD672-884F-42E4-81DC-F9E7ABE2A234}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{F2C4D0B6-70B4-49E4-BAFE-8D0FC994BAA6}" type="presOf" srcId="{2F3A1133-3EF2-4759-B14F-AF155FE0020F}" destId="{67F4F509-4B7C-4530-975E-6DC4E6EDD5C8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C5347E5E-E14F-44EC-8F4B-78BAA6CAD4C0}" type="presOf" srcId="{67EA6C06-40D4-4BA7-8B04-01A3168DAF4B}" destId="{46918F3A-1327-48FF-86E9-DB06C2007076}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{1C74F18B-5F3C-4695-83ED-FB658730A73E}" type="presOf" srcId="{C8681AFA-70D6-4EEE-BE9C-6F35299DB9DF}" destId="{EF9A235D-F4AB-4389-B5A0-97AB25CA2C90}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{BCB51068-ECC4-4A8B-BF19-70D24AC0E8AE}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{2B077780-3556-4562-9415-2D9CA5C9C56E}" srcOrd="11" destOrd="0" parTransId="{A0873F6A-3D8F-468D-AA59-DB02B1916167}" sibTransId="{F4F2512A-316C-4343-BA16-1FF90E25B187}"/>
-    <dgm:cxn modelId="{36A2F668-1F5F-45F0-8222-5E0ADA43718B}" type="presOf" srcId="{7C1A56A9-FA74-45DA-B3C6-609DEA9FE06F}" destId="{68585BAF-A55F-490D-94D4-871F19C7B801}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{07DFCCDB-DF00-4AC6-9697-8920B774ACE2}" type="presOf" srcId="{D998BC7D-3E73-4072-9894-E11ACE7D8F3E}" destId="{551E762A-A4CB-4C11-B444-756DAAEEEC4D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{C8FF56C8-9CE3-497C-AB70-A0DBBA91E65A}" type="presOf" srcId="{01C7EDE9-2CFC-412F-9066-C25EA6CE353B}" destId="{5A8165B4-17F0-427C-9382-FD8586D7FBC6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{DA0DB10E-EF65-407E-AAB0-99E6AD72CAB0}" type="presOf" srcId="{31BC65FF-7ADE-4CE7-8C9A-1CBB20555114}" destId="{1496533C-6844-4EA0-9783-3AF6982DBE83}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{E506395B-5CBA-42FC-84AA-61CEA1EEE422}" srcId="{C56CB590-B245-4816-B7C7-DDA4E414604E}" destId="{E5008AA6-3202-468A-940A-B4CA9F91832E}" srcOrd="13" destOrd="0" parTransId="{3DF4EF37-E315-41CC-AAFC-EA49AAB11DED}" sibTransId="{7E34A893-6ADD-461E-896B-AD6A5D4F08C8}"/>
-    <dgm:cxn modelId="{10CC98A5-CA14-459B-9B4A-294118806662}" type="presOf" srcId="{9671203F-587E-40E2-855A-89971883591F}" destId="{47333240-1AFA-4ABF-A49C-6ABE88F3A11D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{5687E229-5155-4951-86AB-ADEB1DF58E2B}" type="presOf" srcId="{6FF10B12-FE55-4D61-ABB2-9A37D09F8764}" destId="{F6DD1557-97CB-4303-9951-CD20E7F60594}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{A931A8A4-D70E-4653-94EC-40E6FDC8409C}" type="presOf" srcId="{147DA98C-812C-4A00-86C9-81284A2D5AA7}" destId="{F8511D72-5170-434B-A5C5-B58C87E51FA9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{EE4F1AE1-EE48-4003-B040-FE6883AC3404}" type="presOf" srcId="{163043EE-AEEB-46D5-A7D1-C03FADB7A8D6}" destId="{D7041E11-ECC5-4EB0-BF38-ABD58325A1B8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{5A2C8DF5-FCAC-4BAE-9B50-95CC5427F5FD}" type="presOf" srcId="{9E51A304-FC5F-4187-B6FC-DB20CAC0A857}" destId="{6FDE27FD-F369-4BA8-AE8C-4FD90941DE1B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{D8B4CC7D-A8B0-43CD-9950-7D9345057841}" type="presOf" srcId="{9628DBEC-2BE9-46F9-AD6C-EB441F40214E}" destId="{FEDF61A1-7E36-4132-B66D-BC73936772B2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{3D22CB03-2A61-483B-A095-E720910CBEC3}" type="presOf" srcId="{2C182201-9B04-47F8-8DD4-BB4E1F463B10}" destId="{F6044305-7E73-4C4D-97E0-17CA0E299568}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
-    <dgm:cxn modelId="{7A04FF78-AB92-4872-AA58-0DA802EF6B29}" type="presOf" srcId="{BE171F4D-DD5C-413C-B713-29B371BE1E9C}" destId="{AC06AFBA-ED0B-4197-BE03-38A4D6BAD637}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{9D59C01E-72CE-4B68-AD52-86DD49145279}" type="presParOf" srcId="{8FCACA15-864B-4B6B-9645-436C803FF44B}" destId="{94C47B99-1036-4B00-AA51-2FA9BD12A300}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{7A92614C-76A1-4C47-9921-12690BC5D96A}" type="presParOf" srcId="{94C47B99-1036-4B00-AA51-2FA9BD12A300}" destId="{187F175F-870E-491D-8C5E-56029B323C29}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{A5F999B5-C046-4764-AA62-7DDFB1614E26}" type="presParOf" srcId="{187F175F-870E-491D-8C5E-56029B323C29}" destId="{E3743CCE-B433-4A0A-BDD4-FA1AAC75F4AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
@@ -11365,8 +11378,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6928932" y="1308358"/>
-          <a:ext cx="161608" cy="495600"/>
+          <a:off x="7356460" y="1611329"/>
+          <a:ext cx="199431" cy="611589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11380,10 +11393,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="495600"/>
+                <a:pt x="0" y="611589"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="161608" y="495600"/>
+                <a:pt x="199431" y="611589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11423,8 +11436,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7467629" y="543409"/>
-          <a:ext cx="813431" cy="495600"/>
+          <a:off x="8021231" y="667354"/>
+          <a:ext cx="1003803" cy="611589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11435,13 +11448,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="813431" y="0"/>
+                <a:pt x="1003803" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="813431" y="495600"/>
+                <a:pt x="1003803" y="611589"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="495600"/>
+                <a:pt x="0" y="611589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11481,8 +11494,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11952276" y="2838255"/>
-          <a:ext cx="161608" cy="2790447"/>
+          <a:off x="13555449" y="3499278"/>
+          <a:ext cx="199431" cy="3443513"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11496,10 +11509,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2790447"/>
+                <a:pt x="0" y="3443513"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="161608" y="2790447"/>
+                <a:pt x="199431" y="3443513"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11539,8 +11552,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11952276" y="2838255"/>
-          <a:ext cx="161608" cy="2025498"/>
+          <a:off x="13555449" y="3499278"/>
+          <a:ext cx="199431" cy="2499538"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11554,10 +11567,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2025498"/>
+                <a:pt x="0" y="2499538"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="161608" y="2025498"/>
+                <a:pt x="199431" y="2499538"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11597,8 +11610,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11952276" y="2838255"/>
-          <a:ext cx="161608" cy="1260549"/>
+          <a:off x="13555449" y="3499278"/>
+          <a:ext cx="199431" cy="1555563"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11612,10 +11625,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1260549"/>
+                <a:pt x="0" y="1555563"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="161608" y="1260549"/>
+                <a:pt x="199431" y="1555563"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11655,8 +11668,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11952276" y="2838255"/>
-          <a:ext cx="161608" cy="495600"/>
+          <a:off x="13555449" y="3499278"/>
+          <a:ext cx="199431" cy="611589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11670,10 +11683,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="495600"/>
+                <a:pt x="0" y="611589"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="161608" y="495600"/>
+                <a:pt x="199431" y="611589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11713,8 +11726,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8281060" y="543409"/>
-          <a:ext cx="4102173" cy="1756150"/>
+          <a:off x="9025035" y="667354"/>
+          <a:ext cx="5062230" cy="2167153"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11728,13 +11741,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1643024"/>
+                <a:pt x="0" y="2027551"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="4102173" y="1643024"/>
+                <a:pt x="5062230" y="2027551"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="4102173" y="1756150"/>
+                <a:pt x="5062230" y="2167153"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11774,8 +11787,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10583988" y="2838255"/>
-          <a:ext cx="113126" cy="495600"/>
+          <a:off x="11866931" y="3499278"/>
+          <a:ext cx="139601" cy="611589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11786,13 +11799,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="495600"/>
+                <a:pt x="139601" y="611589"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="495600"/>
+                <a:pt x="0" y="611589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11832,8 +11845,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10583988" y="2838255"/>
-          <a:ext cx="113126" cy="6615191"/>
+          <a:off x="11866931" y="3499278"/>
+          <a:ext cx="139601" cy="8163386"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11844,13 +11857,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="6615191"/>
+                <a:pt x="139601" y="8163386"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="6615191"/>
+                <a:pt x="0" y="8163386"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11890,8 +11903,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10697114" y="2838255"/>
-          <a:ext cx="113126" cy="5850243"/>
+          <a:off x="12006533" y="3499278"/>
+          <a:ext cx="139601" cy="7219411"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11905,10 +11918,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="5850243"/>
+                <a:pt x="0" y="7219411"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="5850243"/>
+                <a:pt x="139601" y="7219411"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11948,8 +11961,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10583988" y="2838255"/>
-          <a:ext cx="113126" cy="5850243"/>
+          <a:off x="11866931" y="3499278"/>
+          <a:ext cx="139601" cy="7219411"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11960,13 +11973,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="5850243"/>
+                <a:pt x="139601" y="7219411"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="5850243"/>
+                <a:pt x="0" y="7219411"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12006,8 +12019,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10697114" y="2838255"/>
-          <a:ext cx="113126" cy="5085294"/>
+          <a:off x="12006533" y="3499278"/>
+          <a:ext cx="139601" cy="6275436"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12021,10 +12034,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="5085294"/>
+                <a:pt x="0" y="6275436"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="5085294"/>
+                <a:pt x="139601" y="6275436"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12064,8 +12077,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10583988" y="2838255"/>
-          <a:ext cx="113126" cy="5085294"/>
+          <a:off x="11866931" y="3499278"/>
+          <a:ext cx="139601" cy="6275436"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12076,13 +12089,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="5085294"/>
+                <a:pt x="139601" y="6275436"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="5085294"/>
+                <a:pt x="0" y="6275436"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12122,8 +12135,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10697114" y="2838255"/>
-          <a:ext cx="113126" cy="4320345"/>
+          <a:off x="12006533" y="3499278"/>
+          <a:ext cx="139601" cy="5331462"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12137,10 +12150,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="4320345"/>
+                <a:pt x="0" y="5331462"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="4320345"/>
+                <a:pt x="139601" y="5331462"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12180,8 +12193,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10583988" y="2838255"/>
-          <a:ext cx="113126" cy="4320345"/>
+          <a:off x="11866931" y="3499278"/>
+          <a:ext cx="139601" cy="5331462"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12192,13 +12205,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="4320345"/>
+                <a:pt x="139601" y="5331462"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="4320345"/>
+                <a:pt x="0" y="5331462"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12238,8 +12251,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10697114" y="2838255"/>
-          <a:ext cx="113126" cy="3555396"/>
+          <a:off x="12006533" y="3499278"/>
+          <a:ext cx="139601" cy="4387487"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12253,10 +12266,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3555396"/>
+                <a:pt x="0" y="4387487"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="3555396"/>
+                <a:pt x="139601" y="4387487"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12296,8 +12309,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10583988" y="2838255"/>
-          <a:ext cx="113126" cy="3555396"/>
+          <a:off x="11866931" y="3499278"/>
+          <a:ext cx="139601" cy="4387487"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12308,13 +12321,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="3555396"/>
+                <a:pt x="139601" y="4387487"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="3555396"/>
+                <a:pt x="0" y="4387487"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12354,8 +12367,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10697114" y="2838255"/>
-          <a:ext cx="113126" cy="2790447"/>
+          <a:off x="12006533" y="3499278"/>
+          <a:ext cx="139601" cy="3443513"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12369,10 +12382,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2790447"/>
+                <a:pt x="0" y="3443513"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="2790447"/>
+                <a:pt x="139601" y="3443513"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12412,8 +12425,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10583988" y="2838255"/>
-          <a:ext cx="113126" cy="2790447"/>
+          <a:off x="11866931" y="3499278"/>
+          <a:ext cx="139601" cy="3443513"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12424,13 +12437,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="2790447"/>
+                <a:pt x="139601" y="3443513"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="2790447"/>
+                <a:pt x="0" y="3443513"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12470,8 +12483,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10697114" y="2838255"/>
-          <a:ext cx="113126" cy="2025498"/>
+          <a:off x="12006533" y="3499278"/>
+          <a:ext cx="139601" cy="2499538"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12485,10 +12498,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2025498"/>
+                <a:pt x="0" y="2499538"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="2025498"/>
+                <a:pt x="139601" y="2499538"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12528,8 +12541,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10583988" y="2838255"/>
-          <a:ext cx="113126" cy="2025498"/>
+          <a:off x="11866931" y="3499278"/>
+          <a:ext cx="139601" cy="2499538"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12540,13 +12553,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="2025498"/>
+                <a:pt x="139601" y="2499538"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="2025498"/>
+                <a:pt x="0" y="2499538"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12586,8 +12599,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10697114" y="2838255"/>
-          <a:ext cx="113126" cy="1260549"/>
+          <a:off x="12006533" y="3499278"/>
+          <a:ext cx="139601" cy="1555563"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12601,10 +12614,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1260549"/>
+                <a:pt x="0" y="1555563"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="1260549"/>
+                <a:pt x="139601" y="1555563"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12644,8 +12657,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10583988" y="2838255"/>
-          <a:ext cx="113126" cy="1260549"/>
+          <a:off x="11866931" y="3499278"/>
+          <a:ext cx="139601" cy="1555563"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12656,13 +12669,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="1260549"/>
+                <a:pt x="139601" y="1555563"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1260549"/>
+                <a:pt x="0" y="1555563"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12702,8 +12715,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8281060" y="543409"/>
-          <a:ext cx="2416053" cy="1756150"/>
+          <a:off x="9025035" y="667354"/>
+          <a:ext cx="2981497" cy="2167153"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12717,13 +12730,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1643024"/>
+                <a:pt x="0" y="2027551"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2416053" y="1643024"/>
+                <a:pt x="2981497" y="2027551"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2416053" y="1756150"/>
+                <a:pt x="2981497" y="2167153"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12763,8 +12776,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7976697" y="2838255"/>
-          <a:ext cx="113126" cy="495600"/>
+          <a:off x="8649440" y="3499278"/>
+          <a:ext cx="139601" cy="611589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12775,13 +12788,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="495600"/>
+                <a:pt x="139601" y="611589"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="495600"/>
+                <a:pt x="0" y="611589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12821,8 +12834,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8089823" y="2838255"/>
-          <a:ext cx="113126" cy="5850243"/>
+          <a:off x="8789042" y="3499278"/>
+          <a:ext cx="139601" cy="7219411"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12836,10 +12849,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="5850243"/>
+                <a:pt x="0" y="7219411"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="5850243"/>
+                <a:pt x="139601" y="7219411"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12879,8 +12892,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7976697" y="2838255"/>
-          <a:ext cx="113126" cy="5850243"/>
+          <a:off x="8649440" y="3499278"/>
+          <a:ext cx="139601" cy="7219411"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12891,13 +12904,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="5850243"/>
+                <a:pt x="139601" y="7219411"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="5850243"/>
+                <a:pt x="0" y="7219411"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12937,8 +12950,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8089823" y="2838255"/>
-          <a:ext cx="113126" cy="5085294"/>
+          <a:off x="8789042" y="3499278"/>
+          <a:ext cx="139601" cy="6275436"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12952,10 +12965,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="5085294"/>
+                <a:pt x="0" y="6275436"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="5085294"/>
+                <a:pt x="139601" y="6275436"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12995,8 +13008,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7976697" y="2838255"/>
-          <a:ext cx="113126" cy="5085294"/>
+          <a:off x="8649440" y="3499278"/>
+          <a:ext cx="139601" cy="6275436"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13007,13 +13020,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="5085294"/>
+                <a:pt x="139601" y="6275436"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="5085294"/>
+                <a:pt x="0" y="6275436"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13053,8 +13066,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8089823" y="2838255"/>
-          <a:ext cx="113126" cy="4320345"/>
+          <a:off x="8789042" y="3499278"/>
+          <a:ext cx="139601" cy="5331462"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13068,10 +13081,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="4320345"/>
+                <a:pt x="0" y="5331462"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="4320345"/>
+                <a:pt x="139601" y="5331462"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13111,8 +13124,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7976697" y="2838255"/>
-          <a:ext cx="113126" cy="4320345"/>
+          <a:off x="8649440" y="3499278"/>
+          <a:ext cx="139601" cy="5331462"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13123,13 +13136,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="4320345"/>
+                <a:pt x="139601" y="5331462"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="4320345"/>
+                <a:pt x="0" y="5331462"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13169,8 +13182,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8089823" y="2838255"/>
-          <a:ext cx="113126" cy="3555396"/>
+          <a:off x="8789042" y="3499278"/>
+          <a:ext cx="139601" cy="4387487"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13184,10 +13197,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3555396"/>
+                <a:pt x="0" y="4387487"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="3555396"/>
+                <a:pt x="139601" y="4387487"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13227,8 +13240,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7976697" y="2838255"/>
-          <a:ext cx="113126" cy="3555396"/>
+          <a:off x="8649440" y="3499278"/>
+          <a:ext cx="139601" cy="4387487"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13239,13 +13252,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="3555396"/>
+                <a:pt x="139601" y="4387487"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="3555396"/>
+                <a:pt x="0" y="4387487"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13285,8 +13298,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8089823" y="2838255"/>
-          <a:ext cx="113126" cy="2790447"/>
+          <a:off x="8789042" y="3499278"/>
+          <a:ext cx="139601" cy="3443513"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13300,10 +13313,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2790447"/>
+                <a:pt x="0" y="3443513"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="2790447"/>
+                <a:pt x="139601" y="3443513"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13343,8 +13356,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7976697" y="2838255"/>
-          <a:ext cx="113126" cy="2790447"/>
+          <a:off x="8649440" y="3499278"/>
+          <a:ext cx="139601" cy="3443513"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13355,13 +13368,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="2790447"/>
+                <a:pt x="139601" y="3443513"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="2790447"/>
+                <a:pt x="0" y="3443513"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13401,8 +13414,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8089823" y="2838255"/>
-          <a:ext cx="113126" cy="2025498"/>
+          <a:off x="8789042" y="3499278"/>
+          <a:ext cx="139601" cy="2499538"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13416,10 +13429,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2025498"/>
+                <a:pt x="0" y="2499538"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="2025498"/>
+                <a:pt x="139601" y="2499538"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13459,8 +13472,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7976697" y="2838255"/>
-          <a:ext cx="113126" cy="2025498"/>
+          <a:off x="8649440" y="3499278"/>
+          <a:ext cx="139601" cy="2499538"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13471,13 +13484,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="2025498"/>
+                <a:pt x="139601" y="2499538"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="2025498"/>
+                <a:pt x="0" y="2499538"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13517,8 +13530,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8089823" y="2838255"/>
-          <a:ext cx="113126" cy="1260549"/>
+          <a:off x="8789042" y="3499278"/>
+          <a:ext cx="139601" cy="1555563"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13532,10 +13545,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1260549"/>
+                <a:pt x="0" y="1555563"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="1260549"/>
+                <a:pt x="139601" y="1555563"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13575,8 +13588,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7976697" y="2838255"/>
-          <a:ext cx="113126" cy="1260549"/>
+          <a:off x="8649440" y="3499278"/>
+          <a:ext cx="139601" cy="1555563"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13587,13 +13600,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="1260549"/>
+                <a:pt x="139601" y="1555563"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1260549"/>
+                <a:pt x="0" y="1555563"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13633,8 +13646,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8089823" y="543409"/>
-          <a:ext cx="191237" cy="1756150"/>
+          <a:off x="8789042" y="667354"/>
+          <a:ext cx="235993" cy="2167153"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13645,16 +13658,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="191237" y="0"/>
+                <a:pt x="235993" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="191237" y="1643024"/>
+                <a:pt x="235993" y="2027551"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1643024"/>
+                <a:pt x="0" y="2027551"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1756150"/>
+                <a:pt x="0" y="2167153"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13694,8 +13707,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5369406" y="2838255"/>
-          <a:ext cx="113126" cy="495600"/>
+          <a:off x="5431949" y="3499278"/>
+          <a:ext cx="139601" cy="611589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13706,13 +13719,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="495600"/>
+                <a:pt x="139601" y="611589"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="495600"/>
+                <a:pt x="0" y="611589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13752,8 +13765,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5369406" y="2838255"/>
-          <a:ext cx="113126" cy="5850243"/>
+          <a:off x="5431949" y="3499278"/>
+          <a:ext cx="139601" cy="7219411"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13764,13 +13777,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="5850243"/>
+                <a:pt x="139601" y="7219411"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="5850243"/>
+                <a:pt x="0" y="7219411"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13810,8 +13823,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5482533" y="2838255"/>
-          <a:ext cx="113126" cy="5085294"/>
+          <a:off x="5571551" y="3499278"/>
+          <a:ext cx="139601" cy="6275436"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13825,10 +13838,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="5085294"/>
+                <a:pt x="0" y="6275436"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="5085294"/>
+                <a:pt x="139601" y="6275436"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13868,8 +13881,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5369406" y="2838255"/>
-          <a:ext cx="113126" cy="5085294"/>
+          <a:off x="5431949" y="3499278"/>
+          <a:ext cx="139601" cy="6275436"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13880,13 +13893,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="5085294"/>
+                <a:pt x="139601" y="6275436"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="5085294"/>
+                <a:pt x="0" y="6275436"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13926,8 +13939,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5482533" y="2838255"/>
-          <a:ext cx="113126" cy="4320345"/>
+          <a:off x="5571551" y="3499278"/>
+          <a:ext cx="139601" cy="5331462"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13941,10 +13954,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="4320345"/>
+                <a:pt x="0" y="5331462"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="4320345"/>
+                <a:pt x="139601" y="5331462"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -13984,8 +13997,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5369406" y="2838255"/>
-          <a:ext cx="113126" cy="4320345"/>
+          <a:off x="5431949" y="3499278"/>
+          <a:ext cx="139601" cy="5331462"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13996,13 +14009,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="4320345"/>
+                <a:pt x="139601" y="5331462"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="4320345"/>
+                <a:pt x="0" y="5331462"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14042,8 +14055,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5482533" y="2838255"/>
-          <a:ext cx="113126" cy="3555396"/>
+          <a:off x="5571551" y="3499278"/>
+          <a:ext cx="139601" cy="4387487"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14057,10 +14070,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3555396"/>
+                <a:pt x="0" y="4387487"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="3555396"/>
+                <a:pt x="139601" y="4387487"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14100,8 +14113,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5369406" y="2838255"/>
-          <a:ext cx="113126" cy="3555396"/>
+          <a:off x="5431949" y="3499278"/>
+          <a:ext cx="139601" cy="4387487"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14112,13 +14125,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="3555396"/>
+                <a:pt x="139601" y="4387487"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="3555396"/>
+                <a:pt x="0" y="4387487"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14158,8 +14171,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5482533" y="2838255"/>
-          <a:ext cx="113126" cy="2790447"/>
+          <a:off x="5571551" y="3499278"/>
+          <a:ext cx="139601" cy="3443513"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14173,10 +14186,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2790447"/>
+                <a:pt x="0" y="3443513"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="2790447"/>
+                <a:pt x="139601" y="3443513"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14216,8 +14229,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5369406" y="2838255"/>
-          <a:ext cx="113126" cy="2790447"/>
+          <a:off x="5431949" y="3499278"/>
+          <a:ext cx="139601" cy="3443513"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14228,13 +14241,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="2790447"/>
+                <a:pt x="139601" y="3443513"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="2790447"/>
+                <a:pt x="0" y="3443513"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14274,8 +14287,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5482533" y="2838255"/>
-          <a:ext cx="113126" cy="2025498"/>
+          <a:off x="5571551" y="3499278"/>
+          <a:ext cx="139601" cy="2499538"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14289,10 +14302,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2025498"/>
+                <a:pt x="0" y="2499538"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="2025498"/>
+                <a:pt x="139601" y="2499538"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14332,8 +14345,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5369406" y="2838255"/>
-          <a:ext cx="113126" cy="2025498"/>
+          <a:off x="5431949" y="3499278"/>
+          <a:ext cx="139601" cy="2499538"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14344,13 +14357,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="2025498"/>
+                <a:pt x="139601" y="2499538"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="2025498"/>
+                <a:pt x="0" y="2499538"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14390,8 +14403,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5482533" y="2838255"/>
-          <a:ext cx="113126" cy="1260549"/>
+          <a:off x="5571551" y="3499278"/>
+          <a:ext cx="139601" cy="1555563"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14405,10 +14418,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1260549"/>
+                <a:pt x="0" y="1555563"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="113126" y="1260549"/>
+                <a:pt x="139601" y="1555563"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14448,8 +14461,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5369406" y="2838255"/>
-          <a:ext cx="113126" cy="1260549"/>
+          <a:off x="5431949" y="3499278"/>
+          <a:ext cx="139601" cy="1555563"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14460,13 +14473,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="113126" y="0"/>
+                <a:pt x="139601" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="113126" y="1260549"/>
+                <a:pt x="139601" y="1555563"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1260549"/>
+                <a:pt x="0" y="1555563"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14506,8 +14519,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5482533" y="543409"/>
-          <a:ext cx="2798527" cy="1756150"/>
+          <a:off x="5571551" y="667354"/>
+          <a:ext cx="3453484" cy="2167153"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14518,16 +14531,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2798527" y="0"/>
+                <a:pt x="3453484" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2798527" y="1643024"/>
+                <a:pt x="3453484" y="2027551"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1643024"/>
+                <a:pt x="0" y="2027551"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1756150"/>
+                <a:pt x="0" y="2167153"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14567,8 +14580,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4178887" y="543409"/>
-          <a:ext cx="4102173" cy="1756150"/>
+          <a:off x="3962805" y="667354"/>
+          <a:ext cx="5062230" cy="2167153"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14579,16 +14592,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="4102173" y="0"/>
+                <a:pt x="5062230" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="4102173" y="1643024"/>
+                <a:pt x="5062230" y="2027551"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1643024"/>
+                <a:pt x="0" y="2027551"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1756150"/>
+                <a:pt x="0" y="2167153"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14628,8 +14641,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7742364" y="4712"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="8360264" y="2583"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14671,12 +14684,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -14688,15 +14701,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Fujita</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7742364" y="4712"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="8360264" y="2583"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F1B0D93A-0941-42EA-98A9-EBC79F25FBD0}">
@@ -14706,8 +14719,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7796234" y="58582"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="8426742" y="69060"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14777,8 +14790,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3640191" y="2299559"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="3298034" y="2834507"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14820,12 +14833,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -14837,15 +14850,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Iwasaki</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3640191" y="2299559"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="3298034" y="2834507"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B2964A6C-E516-4DA8-A1F7-7C787AF7E90A}">
@@ -14855,8 +14868,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3694060" y="2353429"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="3364511" y="2900984"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14926,8 +14939,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4943836" y="2299559"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="4906780" y="2834507"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14969,12 +14982,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -14986,19 +14999,19 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" sz="1300" kern="1200"/>
             <a:t>Kurahar</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>a</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4943836" y="2299559"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="4906780" y="2834507"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{AC8788CA-3CE6-44C5-AE00-23C3517B5C1C}">
@@ -15008,8 +15021,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4997706" y="2353429"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="4973257" y="2900984"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15079,8 +15092,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4292013" y="3829457"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="4102407" y="4722456"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15120,12 +15133,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -15137,15 +15150,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Ikeda</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4292013" y="3829457"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="4102407" y="4722456"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{74321C7C-F768-4829-BA96-5E11FF65EB18}">
@@ -15155,8 +15168,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4345883" y="3883327"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="4168884" y="4788934"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15226,8 +15239,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5595659" y="3829457"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="5711153" y="4722456"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15267,12 +15280,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -15284,15 +15297,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Hashimura</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5595659" y="3829457"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="5711153" y="4722456"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{02679810-CE81-4523-BDAB-6A6257C488E2}">
@@ -15302,8 +15315,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5649528" y="3883327"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="5777630" y="4788934"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15373,8 +15386,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4292013" y="4594406"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="4102407" y="5666431"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15414,12 +15427,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -15431,15 +15444,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Sugino</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4292013" y="4594406"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="4102407" y="5666431"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9872C640-7F01-4879-A308-8B134222A1BE}">
@@ -15449,8 +15462,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4345883" y="4648275"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="4168884" y="5732908"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15520,8 +15533,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5595659" y="4594406"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="5711153" y="5666431"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15561,12 +15574,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -15578,15 +15591,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Kojima</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5595659" y="4594406"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="5711153" y="5666431"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73969A55-7ED4-4EC3-8149-2E29301CF1F7}">
@@ -15596,8 +15609,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5649528" y="4648275"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="5777630" y="5732908"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15667,8 +15680,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4292013" y="5359355"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="4102407" y="6610406"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15708,12 +15721,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -15725,14 +15738,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Sumiyoshi</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4292013" y="5359355"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="4102407" y="6610406"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BDDDB969-9440-46A6-BA2C-729C2FF4A2CA}">
@@ -15742,8 +15755,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4345883" y="5413224"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="4168884" y="6676883"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15813,8 +15826,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5595659" y="5359355"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="5711153" y="6610406"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15854,12 +15867,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -15871,14 +15884,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Higashi</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5595659" y="5359355"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="5711153" y="6610406"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8B3442EB-6F7E-4525-AA19-49FFED6289FA}">
@@ -15888,8 +15901,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5649528" y="5413224"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="5777630" y="6676883"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15959,8 +15972,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4292013" y="6124304"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="4102407" y="7554380"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16000,12 +16013,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -16017,14 +16030,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Marutani</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4292013" y="6124304"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="4102407" y="7554380"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{482BB302-7AC4-4B79-B342-D2B82CEC60B8}">
@@ -16034,8 +16047,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4345883" y="6181405"/>
-          <a:ext cx="323217" cy="424492"/>
+          <a:off x="4168884" y="7624846"/>
+          <a:ext cx="398862" cy="523839"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16105,8 +16118,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5595659" y="6124304"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="5711153" y="7554380"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16148,12 +16161,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -16165,15 +16178,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Murase</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5595659" y="6124304"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="5711153" y="7554380"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{01A6D452-59B8-415A-8700-57133A0629C1}">
@@ -16183,8 +16196,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5649528" y="6178173"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="5777630" y="7620857"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16254,8 +16267,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4292013" y="6889253"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="4102407" y="8498355"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16297,12 +16310,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -16314,14 +16327,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Sano</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4292013" y="6889253"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="4102407" y="8498355"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8523B5EC-59EC-4157-8151-74084791A259}">
@@ -16331,8 +16344,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4345883" y="6943122"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="4168884" y="8564832"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16402,8 +16415,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5595659" y="6889253"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="5711153" y="8498355"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16445,12 +16458,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -16462,14 +16475,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Kuroda</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5595659" y="6889253"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="5711153" y="8498355"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{27F14BB8-03B7-443D-95BF-4EF9B4F20666}">
@@ -16479,8 +16492,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5649528" y="6943122"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="5777630" y="8564832"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16550,8 +16563,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4292013" y="7654201"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="4102407" y="9442330"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16593,12 +16606,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -16610,22 +16623,22 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>A.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1300" kern="1200"/>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Imai</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4292013" y="7654201"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="4102407" y="9442330"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C78683F9-BF6D-4062-A1F2-3BE822C5F4BD}">
@@ -16635,8 +16648,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4345883" y="7708071"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="4168884" y="9508807"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16706,8 +16719,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5595659" y="7654201"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="5711153" y="9442330"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16749,12 +16762,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -16766,14 +16779,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Kobayashi</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5595659" y="7654201"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="5711153" y="9442330"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C5D74A79-BB39-4351-BFE4-37DCA32CD2FD}">
@@ -16783,8 +16796,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5649528" y="7708071"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="5777630" y="9508807"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16854,8 +16867,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4292013" y="8419150"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="4102407" y="10386304"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16897,12 +16910,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -16914,14 +16927,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Nagae</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4292013" y="8419150"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="4102407" y="10386304"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{027A7FE8-9765-46FF-8860-97A5C441E018}">
@@ -16931,8 +16944,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4345883" y="8473020"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="4168884" y="10452781"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17002,8 +17015,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4292013" y="3064508"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="4102407" y="3778482"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17042,12 +17055,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17059,15 +17072,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Suzuki</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4292013" y="3064508"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="4102407" y="3778482"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{65CA01BE-C1F1-43A9-9385-8DBB6BC24CC0}">
@@ -17077,8 +17090,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4345883" y="3118378"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="4168884" y="3844959"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17148,8 +17161,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7551127" y="2299559"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="8124271" y="2834507"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17191,12 +17204,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17208,15 +17221,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Yakuwa</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7551127" y="2299559"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="8124271" y="2834507"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{04BF3F34-5CEA-4EFE-B33B-4B2F9EBC7677}">
@@ -17226,8 +17239,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7604996" y="2353429"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="8190748" y="2900984"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17297,8 +17310,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6899304" y="3829457"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="7319898" y="4722456"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17338,12 +17351,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17355,15 +17368,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Misonou</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6899304" y="3829457"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="7319898" y="4722456"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CC2EBB0D-913D-4AF1-BA77-A77A7FE5E8F9}">
@@ -17373,8 +17386,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6953174" y="3883327"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="7386375" y="4788934"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17444,8 +17457,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8202949" y="3829457"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="8928644" y="4722456"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17485,12 +17498,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17502,14 +17515,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Sakagashira</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8202949" y="3829457"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="8928644" y="4722456"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D1E2D305-36A3-465A-8DF3-F5A524CFE73E}">
@@ -17519,8 +17532,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8256819" y="3883327"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="8995121" y="4788934"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17590,8 +17603,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6899304" y="4594406"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="7319898" y="5666431"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17631,12 +17644,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17648,14 +17661,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>S.Iwata</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6899304" y="4594406"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="7319898" y="5666431"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EE1DD102-CABE-40FC-8A58-C65F84B34891}">
@@ -17665,8 +17678,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6953174" y="4648275"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="7386375" y="5732908"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17736,8 +17749,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8202949" y="4594406"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="8928644" y="5666431"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17777,12 +17790,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17794,14 +17807,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Tsuchida</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8202949" y="4594406"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="8928644" y="5666431"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{36FBBF8D-93B6-4A91-994F-1C452C7A27B8}">
@@ -17811,8 +17824,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8256819" y="4648275"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="8995121" y="5732908"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17877,8 +17890,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6899304" y="5359355"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="7319898" y="6610406"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17920,12 +17933,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17937,14 +17950,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Hashimoto</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6899304" y="5359355"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="7319898" y="6610406"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5E5E2864-9906-40DD-AE03-DD1A0055C0FF}">
@@ -17954,8 +17967,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6953174" y="5413224"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="7386375" y="6676883"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18025,8 +18038,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8202949" y="5359355"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="8928644" y="6610406"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18068,12 +18081,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18085,14 +18098,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Akiyama</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8202949" y="5359355"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="8928644" y="6610406"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F48215B5-A594-46CE-AE3A-2415AED4E74A}">
@@ -18102,8 +18115,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8256819" y="5413224"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="8995121" y="6676883"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18173,8 +18186,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6899304" y="6124304"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="7319898" y="7554380"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18216,12 +18229,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18233,14 +18246,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>T.Suzuki</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6899304" y="6124304"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="7319898" y="7554380"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{67A59ED7-ED81-46DA-926D-87F21C5D7181}">
@@ -18250,8 +18263,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6953174" y="6178173"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="7386375" y="7620857"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18321,8 +18334,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8202949" y="6124304"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="8928644" y="7554380"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18364,12 +18377,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18381,14 +18394,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Yanagawa</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8202949" y="6124304"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="8928644" y="7554380"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6601D49F-E795-478C-9B0F-CFB9EEF9923D}">
@@ -18398,8 +18411,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8256819" y="6178173"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="8995121" y="7620857"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18469,8 +18482,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6899304" y="6889253"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="7319898" y="8498355"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18512,12 +18525,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18529,14 +18542,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Kanamoto</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6899304" y="6889253"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="7319898" y="8498355"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D09CC37C-B818-4A15-99E5-96F89986E69F}">
@@ -18546,8 +18559,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6953174" y="6943122"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="7386375" y="8564832"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18617,8 +18630,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8202949" y="6889253"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="8928644" y="8498355"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18660,12 +18673,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18677,14 +18690,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Y.Iwata</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8202949" y="6889253"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="8928644" y="8498355"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3CB8E52E-65EF-4A32-A697-537B08BF9D82}">
@@ -18694,8 +18707,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8256819" y="6943122"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="8995121" y="8564832"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18765,8 +18778,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6899304" y="7654201"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="7319898" y="9442330"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18808,12 +18821,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18825,14 +18838,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Shimura</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6899304" y="7654201"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="7319898" y="9442330"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C1CF5A9B-8C31-4799-9EA5-E3A5F7FD2F6E}">
@@ -18842,8 +18855,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6953174" y="7708071"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="7386375" y="9508807"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18913,8 +18926,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8202949" y="7654201"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="8928644" y="9442330"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18956,12 +18969,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18973,14 +18986,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Tamura</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8202949" y="7654201"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="8928644" y="9442330"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{917527A7-B337-4FFE-835B-07BD232EB17B}">
@@ -18990,8 +19003,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8256819" y="7708071"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="8995121" y="9508807"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19061,8 +19074,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6899304" y="8419150"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="7319898" y="10386304"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19104,12 +19117,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -19121,14 +19134,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Taylor</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6899304" y="8419150"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="7319898" y="10386304"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{98D00306-6B34-43C9-B39A-18EBEF599D8F}">
@@ -19138,8 +19151,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6953174" y="8473020"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="7386375" y="10452781"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19209,8 +19222,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8202949" y="8419150"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="8928644" y="10386304"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19252,12 +19265,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -19269,14 +19282,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Hironaka</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8202949" y="8419150"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="8928644" y="10386304"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0DF39149-D653-44C4-B39F-4F8C80737E58}">
@@ -19286,8 +19299,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8256819" y="8473020"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="8995121" y="10452781"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19357,8 +19370,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6899304" y="3064508"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="7319898" y="3778482"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19397,12 +19410,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -19414,15 +19427,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Thurow</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6899304" y="3064508"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="7319898" y="3778482"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F7110B43-42B6-4672-9E8F-0E6C6554E688}">
@@ -19432,8 +19445,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6953174" y="3118378"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="7386375" y="3844959"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19503,8 +19516,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10158417" y="2299559"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="11341762" y="2834507"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19546,12 +19559,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -19563,14 +19576,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" sz="1300" kern="1200"/>
             <a:t>Yamazaki </a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10158417" y="2299559"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="11341762" y="2834507"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{14F3FDE6-9D50-4601-9F18-A9A1C37D9626}">
@@ -19580,8 +19593,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="10212287" y="2353429"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="11408239" y="2900984"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19651,8 +19664,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9506595" y="3829457"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="10537389" y="4722456"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19692,12 +19705,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -19709,14 +19722,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" sz="1300" kern="1200"/>
             <a:t>Sugawara</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9506595" y="3829457"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="10537389" y="4722456"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{93F654FE-FFAD-4302-B7CB-8A1F8AD5E87A}">
@@ -19726,8 +19739,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9560464" y="3883327"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="10603866" y="4788934"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19797,8 +19810,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10810240" y="3829457"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="12146134" y="4722456"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19838,12 +19851,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -19855,15 +19868,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Nishizawa</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10810240" y="3829457"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="12146134" y="4722456"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C26D082E-0013-47C0-9CE5-EAF031519537}">
@@ -19873,8 +19886,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10864110" y="3883327"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="12212612" y="4788934"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19944,8 +19957,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9506595" y="4594406"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="10537389" y="5666431"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19985,12 +19998,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -20002,14 +20015,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Tomita</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9506595" y="4594406"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="10537389" y="5666431"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{51CE2112-D69F-4FC1-B7B0-FE669301569F}">
@@ -20019,8 +20032,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9560464" y="4648275"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="10603866" y="5732908"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20090,8 +20103,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10810240" y="4594406"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="12146134" y="5666431"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20133,12 +20146,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -20150,14 +20163,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Hirabayashi</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10810240" y="4594406"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="12146134" y="5666431"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4B0083E4-6C20-444D-B01D-4B11E7B22F08}">
@@ -20167,8 +20180,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10864110" y="4648275"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="12212612" y="5732908"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20238,8 +20251,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9506595" y="5359355"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="10537389" y="6610406"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20281,12 +20294,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -20298,14 +20311,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Oshiro</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9506595" y="5359355"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="10537389" y="6610406"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F3F6B2D7-05E7-4F88-B2AC-615437F9E71E}">
@@ -20315,8 +20328,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9560464" y="5413224"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="10603866" y="6676883"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20386,8 +20399,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10810240" y="5359355"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="12146134" y="6610406"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20429,12 +20442,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -20446,14 +20459,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Koide</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10810240" y="5359355"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="12146134" y="6610406"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3ABC74D1-B64E-47C1-AE3B-03320EB52179}">
@@ -20463,8 +20476,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10864110" y="5413224"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="12212612" y="6676883"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20534,8 +20547,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9506595" y="6124304"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="10537389" y="7554380"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20577,12 +20590,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -20594,14 +20607,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Kikuchi</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9506595" y="6124304"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="10537389" y="7554380"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B85938DD-138E-4E08-9A73-AC67E6A9842C}">
@@ -20611,8 +20624,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9560464" y="6178173"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="10603866" y="7620857"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20682,8 +20695,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10810240" y="6124304"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="12146134" y="7554380"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20725,12 +20738,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -20742,14 +20755,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Katsuta</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10810240" y="6124304"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="12146134" y="7554380"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8660197D-DB48-4310-8CF7-EFA858919813}">
@@ -20759,8 +20772,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10864110" y="6178173"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="12212612" y="7620857"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20830,8 +20843,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9506595" y="6889253"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="10537389" y="8498355"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20873,12 +20886,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -20890,14 +20903,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Sasaki</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9506595" y="6889253"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="10537389" y="8498355"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EEC6822E-C2B8-4A58-9D1A-CA3A00543AA1}">
@@ -20907,8 +20920,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9560464" y="6943122"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="10603866" y="8564832"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20978,8 +20991,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10810240" y="6889253"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="12146134" y="8498355"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21021,12 +21034,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -21038,14 +21051,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Patrick</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10810240" y="6889253"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="12146134" y="8498355"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3B85D23E-94E3-4A9F-AB89-CAD1DE171BD4}">
@@ -21055,8 +21068,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10864110" y="6943122"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="12212612" y="8564832"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21126,8 +21139,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9506595" y="7654201"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="10537389" y="9442330"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21169,12 +21182,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -21186,14 +21199,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Sue</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9506595" y="7654201"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="10537389" y="9442330"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A84B711C-E5BD-4E6C-AC2D-FAAE273DBE25}">
@@ -21203,8 +21216,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9533956" y="7708071"/>
-          <a:ext cx="376235" cy="430957"/>
+          <a:off x="10571153" y="9508807"/>
+          <a:ext cx="464287" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21274,8 +21287,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10810240" y="7654201"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="12146134" y="9442330"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21317,12 +21330,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -21334,14 +21347,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Hokayama</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10810240" y="7654201"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="12146134" y="9442330"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{075F1D26-7DC9-4A4C-94A2-8003A7123BA4}">
@@ -21351,8 +21364,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="10864110" y="7708071"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="12212612" y="9508807"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21422,8 +21435,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9506595" y="8419150"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="10537389" y="10386304"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21465,12 +21478,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -21482,14 +21495,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Samuel</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9506595" y="8419150"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="10537389" y="10386304"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FD34A9FC-FD6D-4AFF-BF42-17CEBBC00E90}">
@@ -21499,8 +21512,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9560464" y="8473020"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="10603866" y="10452781"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21570,8 +21583,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10810240" y="8419150"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="12146134" y="10386304"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21613,12 +21626,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -21630,14 +21643,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Kawakami</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10810240" y="8419150"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="12146134" y="10386304"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{34EC092D-A14F-40FB-A192-072EEFBAD6AE}">
@@ -21647,8 +21660,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="10875607" y="8450033"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="12226799" y="10424414"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21718,8 +21731,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9506595" y="9184099"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="10537389" y="11330279"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21761,12 +21774,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -21778,14 +21791,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Nakada</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9506595" y="9184099"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="10537389" y="11330279"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{923604D4-49F6-4DC0-8235-0813C77B299E}">
@@ -21795,8 +21808,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9560464" y="9237969"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="10603866" y="11396756"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21866,8 +21879,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9506595" y="3064508"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="10537389" y="3778482"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21906,12 +21919,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -21923,15 +21936,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Narikawa</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9506595" y="3064508"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="10537389" y="3778482"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{338A80DC-AB50-41FB-918E-2A2BF3EB87CD}">
@@ -21941,8 +21954,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9560464" y="3118378"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="10603866" y="3844959"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22012,8 +22025,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11844537" y="2299559"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="13422495" y="2834507"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22053,12 +22066,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -22070,14 +22083,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" sz="1300" kern="1200"/>
             <a:t>Miyake</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11844537" y="2299559"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="13422495" y="2834507"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5412AED6-C866-4063-9165-7DC11DA5E575}">
@@ -22087,8 +22100,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="11898407" y="2353429"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="13488972" y="2900984"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22153,8 +22166,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12113885" y="3064508"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="13754880" y="3778482"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22196,12 +22209,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -22213,15 +22226,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Kitani</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12113885" y="3064508"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="13754880" y="3778482"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F25DFA3C-E5C3-4503-A3FB-3D92450E71A7}">
@@ -22231,8 +22244,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12167755" y="3118378"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="13821357" y="3844959"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22302,8 +22315,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12113885" y="3829457"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="13754880" y="4722456"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22345,12 +22358,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -22362,14 +22375,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Shibazaki</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12113885" y="3829457"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="13754880" y="4722456"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B05A1443-BF92-461A-B201-507B1718DABB}">
@@ -22379,8 +22392,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12167755" y="3883327"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="13821357" y="4788934"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22450,8 +22463,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12113885" y="4594406"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="13754880" y="5666431"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22493,12 +22506,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -22510,14 +22523,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Nakao</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12113885" y="4594406"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="13754880" y="5666431"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E42DA8AE-0086-4A72-94BC-5960DE8AF271}">
@@ -22527,8 +22540,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="12167755" y="4648275"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="13821357" y="5732908"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22598,8 +22611,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12113885" y="5359355"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="13754880" y="6610406"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22641,12 +22654,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -22658,14 +22671,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Hirono</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12113885" y="5359355"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="13754880" y="6610406"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B56D1A12-A412-4C4E-A088-BDEC50A65E62}">
@@ -22675,8 +22688,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12167755" y="5413224"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="13821357" y="6676883"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22746,8 +22759,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6390236" y="769661"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="6691690" y="946558"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22787,12 +22800,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -22804,15 +22817,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Sakai</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1300" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6390236" y="769661"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="6691690" y="946558"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{64696940-E251-4B38-B7EB-4625BF2B693B}">
@@ -22822,8 +22835,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6444106" y="823531"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="6758167" y="1013035"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22893,8 +22906,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7090541" y="1534610"/>
-          <a:ext cx="1077392" cy="538696"/>
+          <a:off x="7555892" y="1890533"/>
+          <a:ext cx="1329541" cy="664770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22936,12 +22949,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="399084" tIns="6985" rIns="6985" bIns="6985" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="492484" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
+          <a:pPr lvl="0" algn="ctr" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -22953,22 +22966,22 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>H.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1300" kern="1200"/>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1300" kern="1200"/>
             <a:t>Imai</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7090541" y="1534610"/>
-        <a:ext cx="1077392" cy="538696"/>
+        <a:off x="7555892" y="1890533"/>
+        <a:ext cx="1329541" cy="664770"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{988FB900-05E8-474F-8A84-634918E7F158}">
@@ -22978,8 +22991,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7144411" y="1588480"/>
-          <a:ext cx="323217" cy="430957"/>
+          <a:off x="7622369" y="1957010"/>
+          <a:ext cx="398862" cy="531816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23061,8 +23074,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="44753" y="-44753"/>
-          <a:ext cx="754785" cy="844292"/>
+          <a:off x="-4062" y="4062"/>
+          <a:ext cx="940523" cy="932398"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst/>
@@ -23128,8 +23141,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="5400000">
-        <a:off x="0" y="0"/>
-        <a:ext cx="844292" cy="566089"/>
+        <a:off x="-1" y="1"/>
+        <a:ext cx="932398" cy="705392"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7F901D78-6E5E-4F8E-A44B-8ACF3C825C77}">
@@ -23139,8 +23152,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="844292" y="0"/>
-          <a:ext cx="844292" cy="754785"/>
+          <a:off x="932398" y="0"/>
+          <a:ext cx="932398" cy="940523"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst/>
@@ -23206,8 +23219,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="844292" y="0"/>
-        <a:ext cx="844292" cy="566089"/>
+        <a:off x="932398" y="0"/>
+        <a:ext cx="932398" cy="705392"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8ED2C0AA-2A20-47A6-95F9-F62149BA0E49}">
@@ -23217,8 +23230,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="0" y="754785"/>
-          <a:ext cx="844292" cy="754785"/>
+          <a:off x="0" y="940523"/>
+          <a:ext cx="932398" cy="940523"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst/>
@@ -23284,8 +23297,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="10800000">
-        <a:off x="0" y="943482"/>
-        <a:ext cx="844292" cy="566089"/>
+        <a:off x="0" y="1175654"/>
+        <a:ext cx="932398" cy="705392"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{AE04CF68-04E7-49C1-A7AE-44B32F6A3827}">
@@ -23295,8 +23308,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="889045" y="710032"/>
-          <a:ext cx="754785" cy="844292"/>
+          <a:off x="928335" y="944586"/>
+          <a:ext cx="940523" cy="932398"/>
         </a:xfrm>
         <a:prstGeom prst="round1Rect">
           <a:avLst/>
@@ -23362,8 +23375,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-5400000">
-        <a:off x="844292" y="943482"/>
-        <a:ext cx="844292" cy="566089"/>
+        <a:off x="932397" y="1175654"/>
+        <a:ext cx="932398" cy="705392"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{54213169-B785-459E-9883-1F8B292A6FB0}">
@@ -23373,8 +23386,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="591004" y="566089"/>
-          <a:ext cx="506575" cy="377392"/>
+          <a:off x="652678" y="705392"/>
+          <a:ext cx="559438" cy="470261"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -23415,12 +23428,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -23432,14 +23445,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
             <a:t>スキルアップ</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="609427" y="584512"/>
-        <a:ext cx="469729" cy="340546"/>
+        <a:off x="675634" y="728348"/>
+        <a:ext cx="513526" cy="424349"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -27144,7 +27157,7 @@
         <xdr:cNvPr id="2" name="図表 1" descr="&quot;&quot;" title="写真付き SmartArt の組織図">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27180,7 +27193,7 @@
         <xdr:cNvPr id="3" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27313,7 +27326,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1" descr="https://c.np.fm/cgi-bin/cbgrn/grn.cgi/grn/file_download/-/%E5%B0%8F%E6%97%A9%E5%B7%9D.jpg?uid=995&amp;fid=342&amp;mime=image%2Fjpeg&amp;hash=fea582e1ebaa1e8cf3dd475bffcc11bfff8efcf6&amp;.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27361,7 +27374,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2" descr="https://c.np.fm/cgi-bin/cbgrn/grn.cgi/grn/file_download/-/%E5%B0%8F%E6%97%A9%E5%B7%9D.jpg?uid=995&amp;fid=342&amp;mime=image%2Fjpeg&amp;hash=fea582e1ebaa1e8cf3dd475bffcc11bfff8efcf6&amp;.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27409,7 +27422,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1" descr="https://c.np.fm/cgi-bin/cbgrn/grn.cgi/grn/file_download/-/DSCN3094%EF%BC%88%E8%87%BC%E4%BA%95%EF%BC%89.JPG?uid=824&amp;fid=270&amp;mime=image%2Fjpeg&amp;hash=a339e677a123ab6b394f243a7b820c968abbb143&amp;.JPG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27457,7 +27470,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27579,7 +27592,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27695,7 +27708,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27864,7 +27877,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28027,7 +28040,7 @@
         <xdr:cNvPr id="11" name="図表 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28063,7 +28076,7 @@
         <xdr:cNvPr id="12" name="角丸四角形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28200,7 +28213,7 @@
         <xdr:cNvPr id="13" name="テキスト ボックス 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28438,7 +28451,7 @@
         <xdr:cNvPr id="14" name="角丸四角形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28537,7 +28550,7 @@
         <xdr:cNvPr id="15" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28619,7 +28632,7 @@
         <xdr:cNvPr id="16" name="テキスト ボックス 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28752,7 +28765,7 @@
         <xdr:cNvPr id="17" name="テキスト ボックス 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28918,7 +28931,7 @@
         <xdr:cNvPr id="18" name="テキスト ボックス 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29069,27 +29082,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:I64" totalsRowShown="0">
-  <autoFilter ref="A1:I64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:I65" totalsRowShown="0">
+  <autoFilter ref="A1:I65"/>
   <tableColumns count="9">
     <tableColumn id="1" name="名前"/>
-    <tableColumn id="2" name="入社日" dataDxfId="2"/>
-    <tableColumn id="3" name="所属" dataDxfId="0"/>
-    <tableColumn id="8" name="チーム" dataDxfId="1"/>
-    <tableColumn id="4" name="雇用形態" dataDxfId="7"/>
-    <tableColumn id="5" name="日数" dataDxfId="6"/>
-    <tableColumn id="6" name="時間" dataDxfId="5"/>
-    <tableColumn id="7" name="週の労働時間" dataDxfId="4">
+    <tableColumn id="2" name="入社日" dataDxfId="7"/>
+    <tableColumn id="3" name="所属" dataDxfId="6"/>
+    <tableColumn id="8" name="チーム" dataDxfId="5"/>
+    <tableColumn id="4" name="雇用形態" dataDxfId="4"/>
+    <tableColumn id="5" name="日数" dataDxfId="3"/>
+    <tableColumn id="6" name="時間" dataDxfId="2"/>
+    <tableColumn id="7" name="週の労働時間" dataDxfId="1">
       <calculatedColumnFormula>テーブル2[[#This Row],[日数]]*テーブル2[[#This Row],[時間]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="今後" dataDxfId="3"/>
+    <tableColumn id="9" name="今後" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -29351,20 +29364,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -29393,7 +29406,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -29423,7 +29436,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -29451,7 +29464,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -29479,7 +29492,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -29509,7 +29522,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -29537,7 +29550,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -29563,7 +29576,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -29591,7 +29604,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -29621,7 +29634,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -29649,7 +29662,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -29677,7 +29690,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -29705,7 +29718,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -29735,7 +29748,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -29763,7 +29776,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -29791,7 +29804,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -29821,7 +29834,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -29849,7 +29862,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>71</v>
       </c>
@@ -29879,7 +29892,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -29905,7 +29918,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>74</v>
       </c>
@@ -29935,7 +29948,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -29965,7 +29978,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>78</v>
       </c>
@@ -29993,7 +30006,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -30021,7 +30034,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -30049,7 +30062,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -30077,7 +30090,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -30105,7 +30118,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -30135,7 +30148,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -30161,7 +30174,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -30189,7 +30202,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -30217,7 +30230,7 @@
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -30245,7 +30258,7 @@
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -30273,7 +30286,7 @@
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -30301,7 +30314,7 @@
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -30329,7 +30342,7 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -30359,7 +30372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -30389,7 +30402,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -30417,7 +30430,7 @@
       </c>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -30447,7 +30460,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -30475,7 +30488,7 @@
       </c>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -30503,7 +30516,7 @@
       </c>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -30531,7 +30544,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -30559,7 +30572,7 @@
       </c>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -30589,7 +30602,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -30617,7 +30630,7 @@
       </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -30645,7 +30658,7 @@
       </c>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
         <v>79</v>
       </c>
@@ -30675,7 +30688,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -30703,7 +30716,7 @@
       </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -30731,7 +30744,7 @@
       </c>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -30759,7 +30772,7 @@
       </c>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -30787,7 +30800,7 @@
       </c>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -30815,7 +30828,7 @@
       </c>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -30843,7 +30856,7 @@
       </c>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -30871,7 +30884,7 @@
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -30899,7 +30912,7 @@
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -30927,7 +30940,7 @@
       </c>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -30955,7 +30968,7 @@
       </c>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -30983,7 +30996,7 @@
       </c>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -31011,7 +31024,7 @@
       </c>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -31039,7 +31052,7 @@
       </c>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -31067,7 +31080,7 @@
       </c>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -31095,7 +31108,7 @@
       </c>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -31121,7 +31134,7 @@
       </c>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -31147,7 +31160,7 @@
       </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -31172,6 +31185,21 @@
         <v>40</v>
       </c>
       <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2">
+        <f>テーブル2[[#This Row],[日数]]*テーブル2[[#This Row],[時間]]</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -31185,26 +31213,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="G45:M48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="V63" sqref="V63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="8" customWidth="1"/>
     <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="45" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="7:13" x14ac:dyDescent="0.15">
       <c r="M45"/>
     </row>
-    <row r="48" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="7:13" x14ac:dyDescent="0.15">
       <c r="G48"/>
     </row>
   </sheetData>
